--- a/clinica/iotools/data/clinical_specifications_adni.xlsx
+++ b/clinica/iotools/data/clinical_specifications_adni.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="271">
   <si>
     <t>Field</t>
   </si>
@@ -835,6 +835,36 @@
   </si>
   <si>
     <t>DIGITSCOR</t>
+  </si>
+  <si>
+    <t>Fusiform</t>
+  </si>
+  <si>
+    <t>MidTemp</t>
+  </si>
+  <si>
+    <t>adni_fusiform_vol</t>
+  </si>
+  <si>
+    <t>adni_midtemp_vol</t>
+  </si>
+  <si>
+    <t>adni_abeta</t>
+  </si>
+  <si>
+    <t>adni_tau</t>
+  </si>
+  <si>
+    <t>adni_ptau</t>
+  </si>
+  <si>
+    <t>ABETA</t>
+  </si>
+  <si>
+    <t>TAU</t>
+  </si>
+  <si>
+    <t>PTAU</t>
   </si>
 </sst>
 </file>
@@ -3230,6 +3260,118 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12839700" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12839700" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8964,10 +9106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10056,6 +10198,76 @@
         <v>206</v>
       </c>
       <c r="F62" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="F68" s="15" t="s">
         <v>95</v>
       </c>
     </row>

--- a/clinica/iotools/data/clinical_specifications_adni.xlsx
+++ b/clinica/iotools/data/clinical_specifications_adni.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="participant.tsv" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="1346">
   <si>
     <t>Field</t>
   </si>
@@ -4419,7 +4419,7 @@
         <xdr:cNvPr id="1025" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4476,7 +4476,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4533,7 +4533,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4647,7 +4647,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4704,7 +4704,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4761,7 +4761,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4818,7 +4818,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4875,7 +4875,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4932,7 +4932,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4989,7 +4989,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5046,7 +5046,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5103,7 +5103,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5160,7 +5160,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5217,7 +5217,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5274,7 +5274,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5331,7 +5331,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5388,7 +5388,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5445,7 +5445,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5502,7 +5502,7 @@
         <xdr:cNvPr id="20" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5559,7 +5559,7 @@
         <xdr:cNvPr id="21" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5616,7 +5616,7 @@
         <xdr:cNvPr id="22" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5673,7 +5673,7 @@
         <xdr:cNvPr id="23" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5730,7 +5730,7 @@
         <xdr:cNvPr id="24" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5787,7 +5787,7 @@
         <xdr:cNvPr id="25" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5844,7 +5844,7 @@
         <xdr:cNvPr id="26" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5901,7 +5901,7 @@
         <xdr:cNvPr id="27" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5958,7 +5958,7 @@
         <xdr:cNvPr id="28" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6020,7 +6020,7 @@
         <xdr:cNvPr id="29" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6082,7 +6082,7 @@
         <xdr:cNvPr id="30" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6144,7 +6144,7 @@
         <xdr:cNvPr id="31" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6206,7 +6206,7 @@
         <xdr:cNvPr id="32" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6268,7 +6268,7 @@
         <xdr:cNvPr id="33" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6330,7 +6330,7 @@
         <xdr:cNvPr id="34" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6392,7 +6392,7 @@
         <xdr:cNvPr id="35" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6454,7 +6454,7 @@
         <xdr:cNvPr id="36" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6516,7 +6516,7 @@
         <xdr:cNvPr id="37" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6578,7 +6578,7 @@
         <xdr:cNvPr id="38" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6640,7 +6640,7 @@
         <xdr:cNvPr id="39" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6702,7 +6702,7 @@
         <xdr:cNvPr id="40" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6764,7 +6764,7 @@
         <xdr:cNvPr id="41" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6826,7 +6826,7 @@
         <xdr:cNvPr id="42" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6880,7 +6880,7 @@
         <xdr:cNvPr id="43" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C4D69D0-1097-4046-8882-5C40E94B04AA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4D69D0-1097-4046-8882-5C40E94B04AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6940,6 +6940,62 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="16548100" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15671800" cy="12700000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7240,8 +7296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7480,6 +7536,12 @@
       <c r="D11" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -7861,7 +7923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F656"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/clinica/iotools/data/clinical_specifications_adni.xlsx
+++ b/clinica/iotools/data/clinical_specifications_adni.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="participant.tsv" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="1346">
   <si>
     <t>Field</t>
   </si>
@@ -723,9 +723,6 @@
     <t>Y or N</t>
   </si>
   <si>
-    <t>Age in years</t>
-  </si>
-  <si>
     <t>In years with, possibly, decimals</t>
   </si>
   <si>
@@ -4090,6 +4087,9 @@
   </si>
   <si>
     <t>string: CN (CN) ; MCI (MCI); Dementia (AD)</t>
+  </si>
+  <si>
+    <t>Age at baseline in years</t>
   </si>
 </sst>
 </file>
@@ -4419,7 +4419,7 @@
         <xdr:cNvPr id="1025" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4476,7 +4476,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4533,7 +4533,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4647,7 +4647,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4704,7 +4704,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4761,7 +4761,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4818,7 +4818,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4875,7 +4875,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4932,7 +4932,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4989,7 +4989,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5046,7 +5046,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5103,7 +5103,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5160,7 +5160,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5217,7 +5217,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5274,7 +5274,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5331,7 +5331,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5388,7 +5388,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5445,7 +5445,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5502,7 +5502,7 @@
         <xdr:cNvPr id="20" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5559,7 +5559,7 @@
         <xdr:cNvPr id="21" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5616,7 +5616,7 @@
         <xdr:cNvPr id="22" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5673,7 +5673,7 @@
         <xdr:cNvPr id="23" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5730,7 +5730,7 @@
         <xdr:cNvPr id="24" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5787,7 +5787,7 @@
         <xdr:cNvPr id="25" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5844,7 +5844,7 @@
         <xdr:cNvPr id="26" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5901,7 +5901,7 @@
         <xdr:cNvPr id="27" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5958,7 +5958,7 @@
         <xdr:cNvPr id="28" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6020,7 +6020,7 @@
         <xdr:cNvPr id="29" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6082,7 +6082,7 @@
         <xdr:cNvPr id="30" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6144,7 +6144,7 @@
         <xdr:cNvPr id="31" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6206,7 +6206,7 @@
         <xdr:cNvPr id="32" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6268,7 +6268,7 @@
         <xdr:cNvPr id="33" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6330,7 +6330,7 @@
         <xdr:cNvPr id="34" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6392,7 +6392,7 @@
         <xdr:cNvPr id="35" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6454,7 +6454,7 @@
         <xdr:cNvPr id="36" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6516,7 +6516,7 @@
         <xdr:cNvPr id="37" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6578,7 +6578,7 @@
         <xdr:cNvPr id="38" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6640,7 +6640,7 @@
         <xdr:cNvPr id="39" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6702,7 +6702,7 @@
         <xdr:cNvPr id="40" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6764,7 +6764,7 @@
         <xdr:cNvPr id="41" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6826,7 +6826,7 @@
         <xdr:cNvPr id="42" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6880,7 +6880,7 @@
         <xdr:cNvPr id="43" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C4D69D0-1097-4046-8882-5C40E94B04AA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4D69D0-1097-4046-8882-5C40E94B04AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6940,6 +6940,62 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="16548100" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15671800" cy="12700000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7240,8 +7296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7469,16 +7525,22 @@
     </row>
     <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>223</v>
+        <v>1345</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>69</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -7486,7 +7548,7 @@
     </row>
     <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>53</v>
@@ -7509,13 +7571,13 @@
     </row>
     <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>85</v>
@@ -7526,13 +7588,13 @@
     </row>
     <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>54</v>
@@ -7545,7 +7607,7 @@
     </row>
     <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>55</v>
@@ -7568,13 +7630,13 @@
     </row>
     <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>56</v>
@@ -7587,26 +7649,26 @@
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>68</v>
@@ -7623,7 +7685,7 @@
     </row>
     <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>60</v>
@@ -7640,16 +7702,16 @@
     </row>
     <row r="20" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>145</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>85</v>
@@ -7657,16 +7719,16 @@
     </row>
     <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>145</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>85</v>
@@ -7674,13 +7736,13 @@
     </row>
     <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>83</v>
@@ -7695,13 +7757,13 @@
     </row>
     <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>131</v>
@@ -7713,13 +7775,13 @@
     </row>
     <row r="24" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>132</v>
@@ -7734,13 +7796,13 @@
         <v>162</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>164</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>85</v>
@@ -7773,13 +7835,13 @@
         <v>165</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>248</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>85</v>
@@ -7787,10 +7849,10 @@
     </row>
     <row r="27" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>85</v>
@@ -7802,10 +7864,10 @@
     </row>
     <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>85</v>
@@ -7838,10 +7900,10 @@
     </row>
     <row r="29" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>85</v>
@@ -7861,7 +7923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F656"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -7975,13 +8037,13 @@
         <v>37</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>95</v>
@@ -8338,7 +8400,7 @@
         <v>164</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>206</v>
@@ -8856,13 +8918,13 @@
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>156</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>95</v>
@@ -8870,13 +8932,13 @@
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>156</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>95</v>
@@ -8884,13 +8946,13 @@
     </row>
     <row r="65" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>156</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>95</v>
@@ -8898,13 +8960,13 @@
     </row>
     <row r="66" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>156</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>95</v>
@@ -8912,13 +8974,13 @@
     </row>
     <row r="67" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>156</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>95</v>
@@ -8926,10 +8988,10 @@
     </row>
     <row r="69" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>139</v>
@@ -8937,10 +8999,10 @@
     </row>
     <row r="70" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>139</v>
@@ -8948,10 +9010,10 @@
     </row>
     <row r="71" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>139</v>
@@ -8959,10 +9021,10 @@
     </row>
     <row r="72" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>139</v>
@@ -8970,10 +9032,10 @@
     </row>
     <row r="73" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>139</v>
@@ -8981,10 +9043,10 @@
     </row>
     <row r="74" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>139</v>
@@ -8992,7 +9054,7 @@
     </row>
     <row r="75" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>137</v>
@@ -9003,3068 +9065,3068 @@
     </row>
     <row r="77" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="97" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E97" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="107" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="111" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="112" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="116" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="117" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="118" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="119" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="120" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="121" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="122" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="123" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="125" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="126" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="127" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="128" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="129" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="131" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="132" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="133" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="134" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="135" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="136" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="137" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="138" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="139" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="140" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="141" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="142" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="144" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="145" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="146" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="147" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="149" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="152" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="153" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="154" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="155" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="156" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="157" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="158" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="159" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="160" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="161" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="162" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="163" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="164" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="165" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="166" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="167" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="168" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="169" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="170" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="171" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="172" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="173" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="174" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="175" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="176" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="177" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="178" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="179" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="180" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="181" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="182" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="183" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="184" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="185" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="186" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="187" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="188" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="189" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="190" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="191" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="192" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="193" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="194" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="195" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="196" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="197" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="198" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="199" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="200" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="201" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E201" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F201" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="F201" s="6" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="203" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="204" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="205" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="206" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="207" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="208" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="209" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="210" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="211" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="212" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="213" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="214" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="215" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="216" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="217" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="218" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="219" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="220" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="221" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="222" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="223" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="224" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="225" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="226" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="227" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="228" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="229" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="230" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="231" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="232" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="233" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="234" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="235" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="236" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="237" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="238" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="239" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="240" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="241" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="242" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="243" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="244" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="245" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="246" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="247" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="248" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="249" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="250" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="251" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="252" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="253" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="254" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="255" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="256" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="257" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="258" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="259" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="260" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="262" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="263" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="264" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="265" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="266" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="267" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="268" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="269" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="270" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="271" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="272" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="273" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="274" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="275" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="276" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="277" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F277" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="278" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="279" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="280" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="282" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="283" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="284" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="285" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="286" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="287" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="288" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="289" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="290" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="292" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="293" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="294" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="295" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="296" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F296" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="297" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F297" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="298" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F298" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="299" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F299" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="300" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="301" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F301" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="302" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F302" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="303" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E303" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="304" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E304" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="305" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F305" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="306" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F306" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="307" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B307" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F307" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="308" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B308" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F308" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="309" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F309" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="310" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B310" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F310" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="311" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B311" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F311" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="312" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B312" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F312" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="313" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F313" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="314" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F314" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="315" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B315" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F315" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="316" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B316" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F316" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="317" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F317" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="318" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F318" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="319" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F319" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="320" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F320" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="321" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F321" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="322" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F322" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="323" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F323" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="324" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="6" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F324" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="325" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F325" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="326" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F326" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="327" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F327" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="328" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F328" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="329" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F329" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="330" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F330" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="331" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F331" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="332" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F332" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="333" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="6" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F333" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="334" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E334" s="6" t="s">
         <v>201</v>
       </c>
       <c r="F334" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="336" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B336" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F336" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="337" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="6" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F337" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="338" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F338" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="339" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F339" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="340" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="6" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F340" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="341" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="6" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E341" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F341" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="342" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B342" s="6" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F342" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="343" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="6" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F343" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="344" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F344" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="345" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="6" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F345" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="346" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F346" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="347" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F347" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="348" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F348" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="349" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B349" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F349" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="350" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F350" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="351" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B351" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F351" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="352" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B352" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F352" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="353" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B353" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E353" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F353" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="354" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="6" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E354" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F354" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="355" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B355" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E355" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F355" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="356" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B356" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E356" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F356" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="357" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E357" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F357" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="358" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="6" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E358" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F358" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="359" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E359" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F359" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="360" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="6" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E360" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F360" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="361" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E361" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F361" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="363" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E363" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F363" s="6" t="s">
         <v>206</v>
@@ -12072,10 +12134,10 @@
     </row>
     <row r="364" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E364" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F364" s="6" t="s">
         <v>206</v>
@@ -12083,10 +12145,10 @@
     </row>
     <row r="365" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F365" s="6" t="s">
         <v>206</v>
@@ -12094,10 +12156,10 @@
     </row>
     <row r="366" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="6" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F366" s="6" t="s">
         <v>206</v>
@@ -12105,10 +12167,10 @@
     </row>
     <row r="367" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E367" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F367" s="6" t="s">
         <v>206</v>
@@ -12116,10 +12178,10 @@
     </row>
     <row r="368" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E368" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F368" s="6" t="s">
         <v>206</v>
@@ -12127,10 +12189,10 @@
     </row>
     <row r="369" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F369" s="6" t="s">
         <v>206</v>
@@ -12138,10 +12200,10 @@
     </row>
     <row r="370" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E370" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F370" s="6" t="s">
         <v>206</v>
@@ -12149,10 +12211,10 @@
     </row>
     <row r="371" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="6" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F371" s="6" t="s">
         <v>206</v>
@@ -12160,10 +12222,10 @@
     </row>
     <row r="372" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E372" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F372" s="6" t="s">
         <v>206</v>
@@ -12171,10 +12233,10 @@
     </row>
     <row r="373" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E373" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F373" s="6" t="s">
         <v>206</v>
@@ -12182,10 +12244,10 @@
     </row>
     <row r="374" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E374" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F374" s="6" t="s">
         <v>206</v>
@@ -12193,10 +12255,10 @@
     </row>
     <row r="375" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E375" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F375" s="6" t="s">
         <v>206</v>
@@ -12204,7 +12266,7 @@
     </row>
     <row r="376" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E376" s="6" t="s">
         <v>207</v>
@@ -12215,10 +12277,10 @@
     </row>
     <row r="377" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E377" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F377" s="6" t="s">
         <v>206</v>
@@ -12226,10 +12288,10 @@
     </row>
     <row r="378" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B378" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E378" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F378" s="6" t="s">
         <v>206</v>
@@ -12237,10 +12299,10 @@
     </row>
     <row r="379" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B379" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E379" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F379" s="6" t="s">
         <v>206</v>
@@ -12248,10 +12310,10 @@
     </row>
     <row r="380" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B380" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E380" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F380" s="6" t="s">
         <v>206</v>
@@ -12259,10 +12321,10 @@
     </row>
     <row r="381" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B381" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E381" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F381" s="6" t="s">
         <v>206</v>
@@ -12270,10 +12332,10 @@
     </row>
     <row r="382" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B382" s="6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E382" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F382" s="6" t="s">
         <v>206</v>
@@ -12281,10 +12343,10 @@
     </row>
     <row r="383" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B383" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E383" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F383" s="6" t="s">
         <v>206</v>
@@ -12292,10 +12354,10 @@
     </row>
     <row r="384" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="6" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E384" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F384" s="6" t="s">
         <v>206</v>
@@ -12303,10 +12365,10 @@
     </row>
     <row r="385" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E385" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F385" s="6" t="s">
         <v>206</v>
@@ -12314,10 +12376,10 @@
     </row>
     <row r="386" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E386" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F386" s="6" t="s">
         <v>206</v>
@@ -12325,10 +12387,10 @@
     </row>
     <row r="387" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E387" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F387" s="6" t="s">
         <v>206</v>
@@ -12336,10 +12398,10 @@
     </row>
     <row r="388" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B388" s="6" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E388" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F388" s="6" t="s">
         <v>206</v>
@@ -12347,10 +12409,10 @@
     </row>
     <row r="389" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E389" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F389" s="6" t="s">
         <v>206</v>
@@ -12358,10 +12420,10 @@
     </row>
     <row r="390" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E390" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F390" s="6" t="s">
         <v>206</v>
@@ -12369,10 +12431,10 @@
     </row>
     <row r="391" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="6" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F391" s="6" t="s">
         <v>206</v>
@@ -12380,10 +12442,10 @@
     </row>
     <row r="392" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E392" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F392" s="6" t="s">
         <v>206</v>
@@ -12391,10 +12453,10 @@
     </row>
     <row r="393" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B393" s="6" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E393" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F393" s="6" t="s">
         <v>206</v>
@@ -12402,10 +12464,10 @@
     </row>
     <row r="394" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B394" s="6" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E394" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F394" s="6" t="s">
         <v>206</v>
@@ -12413,10 +12475,10 @@
     </row>
     <row r="395" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B395" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E395" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F395" s="6" t="s">
         <v>206</v>
@@ -12424,10 +12486,10 @@
     </row>
     <row r="396" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B396" s="6" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E396" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F396" s="6" t="s">
         <v>206</v>
@@ -12435,10 +12497,10 @@
     </row>
     <row r="397" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B397" s="6" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E397" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F397" s="6" t="s">
         <v>206</v>
@@ -12446,10 +12508,10 @@
     </row>
     <row r="398" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B398" s="6" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E398" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F398" s="6" t="s">
         <v>206</v>
@@ -12457,10 +12519,10 @@
     </row>
     <row r="399" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B399" s="6" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E399" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F399" s="6" t="s">
         <v>206</v>
@@ -12468,10 +12530,10 @@
     </row>
     <row r="400" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B400" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E400" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F400" s="6" t="s">
         <v>206</v>
@@ -12479,10 +12541,10 @@
     </row>
     <row r="401" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B401" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E401" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F401" s="6" t="s">
         <v>206</v>
@@ -12490,10 +12552,10 @@
     </row>
     <row r="402" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="6" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E402" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F402" s="6" t="s">
         <v>206</v>
@@ -12501,10 +12563,10 @@
     </row>
     <row r="403" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="6" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E403" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F403" s="6" t="s">
         <v>206</v>
@@ -12512,10 +12574,10 @@
     </row>
     <row r="404" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B404" s="6" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E404" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F404" s="6" t="s">
         <v>206</v>
@@ -12523,10 +12585,10 @@
     </row>
     <row r="405" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B405" s="6" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E405" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F405" s="6" t="s">
         <v>206</v>
@@ -12534,10 +12596,10 @@
     </row>
     <row r="406" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B406" s="6" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E406" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F406" s="6" t="s">
         <v>206</v>
@@ -12545,10 +12607,10 @@
     </row>
     <row r="407" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B407" s="6" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E407" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F407" s="6" t="s">
         <v>206</v>
@@ -12556,10 +12618,10 @@
     </row>
     <row r="408" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B408" s="6" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E408" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F408" s="6" t="s">
         <v>206</v>
@@ -12567,10 +12629,10 @@
     </row>
     <row r="409" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B409" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E409" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F409" s="6" t="s">
         <v>206</v>
@@ -12578,10 +12640,10 @@
     </row>
     <row r="410" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B410" s="6" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E410" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F410" s="6" t="s">
         <v>206</v>
@@ -12589,7 +12651,7 @@
     </row>
     <row r="411" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B411" s="6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E411" s="6" t="s">
         <v>205</v>
@@ -12600,10 +12662,10 @@
     </row>
     <row r="412" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B412" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E412" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F412" s="6" t="s">
         <v>206</v>
@@ -12611,10 +12673,10 @@
     </row>
     <row r="413" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B413" s="6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E413" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F413" s="6" t="s">
         <v>206</v>
@@ -12622,10 +12684,10 @@
     </row>
     <row r="414" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B414" s="6" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E414" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F414" s="6" t="s">
         <v>206</v>
@@ -12633,10 +12695,10 @@
     </row>
     <row r="415" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B415" s="6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E415" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F415" s="6" t="s">
         <v>206</v>
@@ -12644,10 +12706,10 @@
     </row>
     <row r="416" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B416" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E416" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F416" s="6" t="s">
         <v>206</v>
@@ -12655,10 +12717,10 @@
     </row>
     <row r="417" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B417" s="6" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E417" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F417" s="6" t="s">
         <v>206</v>
@@ -12666,10 +12728,10 @@
     </row>
     <row r="418" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B418" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E418" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F418" s="6" t="s">
         <v>206</v>
@@ -12677,10 +12739,10 @@
     </row>
     <row r="419" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B419" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E419" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F419" s="6" t="s">
         <v>206</v>
@@ -12688,10 +12750,10 @@
     </row>
     <row r="420" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B420" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E420" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F420" s="6" t="s">
         <v>206</v>
@@ -12699,10 +12761,10 @@
     </row>
     <row r="421" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E421" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F421" s="6" t="s">
         <v>206</v>
@@ -12710,10 +12772,10 @@
     </row>
     <row r="422" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="6" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E422" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F422" s="6" t="s">
         <v>206</v>
@@ -12721,10 +12783,10 @@
     </row>
     <row r="423" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E423" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F423" s="6" t="s">
         <v>206</v>
@@ -12732,10 +12794,10 @@
     </row>
     <row r="424" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B424" s="6" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E424" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F424" s="6" t="s">
         <v>206</v>
@@ -12743,10 +12805,10 @@
     </row>
     <row r="425" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="6" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E425" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F425" s="6" t="s">
         <v>206</v>
@@ -12754,10 +12816,10 @@
     </row>
     <row r="426" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B426" s="6" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E426" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F426" s="6" t="s">
         <v>206</v>
@@ -12765,10 +12827,10 @@
     </row>
     <row r="427" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B427" s="6" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E427" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F427" s="6" t="s">
         <v>206</v>
@@ -12776,10 +12838,10 @@
     </row>
     <row r="428" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B428" s="6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E428" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F428" s="6" t="s">
         <v>206</v>
@@ -12787,10 +12849,10 @@
     </row>
     <row r="429" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B429" s="6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E429" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F429" s="6" t="s">
         <v>206</v>
@@ -12798,10 +12860,10 @@
     </row>
     <row r="430" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B430" s="6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E430" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F430" s="6" t="s">
         <v>206</v>
@@ -12809,7 +12871,7 @@
     </row>
     <row r="431" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B431" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E431" s="6" t="s">
         <v>200</v>
@@ -12820,10 +12882,10 @@
     </row>
     <row r="432" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B432" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E432" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F432" s="6" t="s">
         <v>206</v>
@@ -12831,10 +12893,10 @@
     </row>
     <row r="433" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B433" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E433" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F433" s="6" t="s">
         <v>206</v>
@@ -12842,2389 +12904,2389 @@
     </row>
     <row r="435" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B435" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E435" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F435" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="436" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B436" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E436" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F436" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="437" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B437" s="6" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E437" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F437" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="438" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B438" s="6" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E438" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F438" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="439" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B439" s="6" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E439" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F439" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="440" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B440" s="6" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E440" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F440" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="441" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B441" s="6" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E441" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F441" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="442" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B442" s="6" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E442" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F442" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="443" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B443" s="6" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E443" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F443" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="444" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B444" s="6" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E444" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F444" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="445" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B445" s="6" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E445" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F445" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="446" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B446" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E446" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F446" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="447" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B447" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E447" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F447" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="448" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B448" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E448" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F448" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="449" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B449" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E449" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F449" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="450" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B450" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E450" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F450" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="451" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E451" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F451" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="452" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B452" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E452" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F452" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="453" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="6" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E453" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F453" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="454" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E454" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F454" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="455" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B455" s="6" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E455" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F455" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="456" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B456" s="6" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E456" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F456" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="457" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B457" s="6" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E457" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F457" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="458" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B458" s="6" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E458" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F458" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="459" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B459" s="6" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E459" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F459" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="460" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B460" s="6" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E460" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F460" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="461" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B461" s="6" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E461" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F461" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="462" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B462" s="6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E462" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F462" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="463" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B463" s="6" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E463" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F463" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="464" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B464" s="6" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E464" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F464" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="465" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B465" s="6" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E465" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F465" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="466" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B466" s="6" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E466" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F466" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="467" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B467" s="6" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E467" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F467" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="468" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B468" s="6" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E468" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F468" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="469" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="6" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E469" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F469" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="470" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="6" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E470" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F470" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="471" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="6" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E471" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F471" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="472" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B472" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E472" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F472" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="473" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B473" s="6" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E473" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F473" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="474" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="6" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E474" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="F474" s="6" t="s">
         <v>609</v>
-      </c>
-      <c r="F474" s="6" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="476" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B476" s="6" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E476" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F476" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="477" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B477" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E477" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F477" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="478" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B478" s="6" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E478" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F478" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="479" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B479" s="6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E479" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F479" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="480" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B480" s="6" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E480" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F480" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="481" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B481" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E481" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F481" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="482" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B482" s="6" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E482" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F482" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="483" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B483" s="6" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E483" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F483" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="484" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B484" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E484" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F484" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="485" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B485" s="6" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E485" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F485" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="486" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B486" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E486" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F486" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="487" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B487" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E487" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F487" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="488" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B488" s="6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E488" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F488" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="489" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B489" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E489" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F489" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="490" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B490" s="6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E490" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F490" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="491" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B491" s="6" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E491" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F491" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="492" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B492" s="6" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E492" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F492" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="493" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B493" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E493" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F493" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="494" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B494" s="6" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E494" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F494" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="495" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B495" s="6" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E495" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F495" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="496" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B496" s="6" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E496" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F496" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="497" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B497" s="6" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E497" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F497" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="498" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B498" s="6" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E498" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F498" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="499" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B499" s="6" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E499" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F499" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="500" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B500" s="6" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E500" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F500" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="501" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B501" s="6" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E501" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F501" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="502" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B502" s="6" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E502" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F502" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="503" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B503" s="6" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E503" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F503" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="504" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B504" s="6" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E504" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F504" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="505" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B505" s="6" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E505" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F505" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="506" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B506" s="6" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E506" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F506" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="507" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B507" s="6" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E507" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F507" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="508" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B508" s="6" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E508" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F508" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="509" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B509" s="6" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E509" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F509" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="510" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B510" s="6" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E510" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F510" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="511" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B511" s="6" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E511" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F511" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="512" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B512" s="6" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E512" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F512" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="513" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B513" s="6" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E513" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F513" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="514" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B514" s="6" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E514" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F514" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="515" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B515" s="6" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E515" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F515" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="516" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B516" s="6" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E516" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F516" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="517" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B517" s="6" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E517" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F517" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="518" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B518" s="6" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E518" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F518" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="519" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B519" s="6" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E519" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F519" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="520" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B520" s="6" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E520" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F520" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="521" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B521" s="6" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E521" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F521" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="522" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B522" s="6" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E522" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F522" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="523" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B523" s="6" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E523" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F523" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="524" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B524" s="6" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E524" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F524" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="525" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B525" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E525" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F525" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="526" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B526" s="6" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E526" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F526" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="527" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B527" s="6" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E527" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F527" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="528" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B528" s="6" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E528" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F528" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="529" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B529" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E529" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F529" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="530" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B530" s="6" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E530" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F530" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="531" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B531" s="6" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E531" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F531" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="532" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B532" s="6" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E532" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F532" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="533" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B533" s="6" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E533" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F533" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="534" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B534" s="6" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E534" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F534" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="535" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B535" s="6" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E535" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F535" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="536" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B536" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E536" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F536" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="537" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B537" s="6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E537" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F537" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="538" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B538" s="6" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E538" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F538" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="539" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B539" s="6" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E539" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F539" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="540" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B540" s="6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E540" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F540" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="541" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B541" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E541" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="F541" s="6" t="s">
         <v>675</v>
-      </c>
-      <c r="F541" s="6" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="543" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B543" s="6" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E543" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F543" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="544" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B544" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E544" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F544" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="545" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B545" s="6" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E545" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F545" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="546" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B546" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E546" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F546" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="547" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B547" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E547" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F547" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="548" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B548" s="6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E548" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F548" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="549" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B549" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E549" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F549" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="550" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B550" s="6" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E550" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F550" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="551" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B551" s="6" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E551" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F551" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="552" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B552" s="6" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E552" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F552" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="553" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B553" s="6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E553" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F553" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="554" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B554" s="6" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E554" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F554" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="555" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B555" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E555" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F555" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="556" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B556" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E556" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="F556" s="6" t="s">
         <v>681</v>
-      </c>
-      <c r="F556" s="6" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="557" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B557" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E557" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F557" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="558" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B558" s="6" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E558" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F558" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="559" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B559" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E559" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F559" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="560" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B560" s="6" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E560" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F560" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="561" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B561" s="6" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E561" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F561" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="562" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B562" s="6" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E562" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F562" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="563" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B563" s="6" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E563" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F563" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="564" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B564" s="6" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E564" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F564" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="565" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B565" s="6" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E565" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F565" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="566" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B566" s="6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E566" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F566" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="567" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B567" s="6" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E567" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F567" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="568" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B568" s="6" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E568" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F568" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="569" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B569" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E569" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F569" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="570" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B570" s="6" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E570" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F570" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="571" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B571" s="6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E571" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F571" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="572" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B572" s="6" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E572" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F572" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="573" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B573" s="6" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E573" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F573" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="574" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B574" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E574" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F574" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="575" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B575" s="6" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E575" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F575" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="576" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B576" s="6" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E576" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F576" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="577" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B577" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E577" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F577" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="578" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B578" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E578" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F578" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="579" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B579" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E579" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F579" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="580" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B580" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E580" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F580" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="581" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B581" s="6" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E581" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F581" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="582" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B582" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E582" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F582" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="583" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B583" s="6" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E583" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F583" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="584" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B584" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E584" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F584" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="585" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B585" s="6" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E585" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F585" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="586" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B586" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E586" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F586" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="587" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B587" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E587" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F587" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="588" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B588" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E588" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F588" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="589" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B589" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E589" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F589" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="590" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B590" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E590" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F590" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="591" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B591" s="6" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E591" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F591" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="592" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B592" s="6" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E592" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F592" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="593" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B593" s="6" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E593" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F593" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="594" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B594" s="6" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E594" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F594" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="595" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B595" s="6" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E595" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F595" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="596" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B596" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E596" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F596" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="597" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B597" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E597" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F597" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="598" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B598" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E598" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F598" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="599" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B599" s="6" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E599" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F599" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="600" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B600" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E600" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F600" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="601" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B601" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E601" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F601" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="602" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B602" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E602" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F602" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="603" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B603" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E603" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F603" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="604" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B604" s="6" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E604" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F604" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="605" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B605" s="6" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E605" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F605" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="606" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B606" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E606" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F606" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="607" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B607" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E607" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F607" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="608" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B608" s="6" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E608" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F608" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="609" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B609" s="6" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E609" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F609" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="610" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B610" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E610" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F610" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="612" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B612" s="6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E612" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F612" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="613" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B613" s="6" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E613" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F613" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="614" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B614" s="6" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E614" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F614" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="615" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B615" s="6" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E615" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F615" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="616" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B616" s="6" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E616" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F616" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="617" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B617" s="6" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E617" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F617" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="618" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B618" s="6" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E618" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F618" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="619" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B619" s="6" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E619" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F619" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="620" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B620" s="6" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E620" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F620" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="621" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B621" s="6" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E621" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F621" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="622" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B622" s="6" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E622" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F622" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="623" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B623" s="6" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E623" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F623" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="624" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B624" s="6" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E624" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F624" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="625" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B625" s="6" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E625" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F625" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="626" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B626" s="6" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E626" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F626" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="627" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B627" s="6" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E627" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F627" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="628" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B628" s="6" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E628" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F628" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="629" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B629" s="6" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E629" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F629" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="630" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B630" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E630" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F630" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="631" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B631" s="6" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E631" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F631" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="632" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B632" s="6" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E632" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F632" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="633" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B633" s="6" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E633" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F633" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="634" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B634" s="6" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E634" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F634" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="635" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B635" s="6" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E635" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F635" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="636" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B636" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E636" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F636" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="637" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B637" s="6" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E637" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F637" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="638" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B638" s="6" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E638" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F638" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="639" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B639" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E639" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F639" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="640" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B640" s="6" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E640" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="F640" s="6" t="s">
         <v>746</v>
-      </c>
-      <c r="F640" s="6" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="642" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B642" s="6" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E642" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F642" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="643" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B643" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E643" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F643" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="644" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B644" s="6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E644" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F644" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="645" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B645" s="6" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E645" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F645" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="646" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B646" s="6" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E646" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F646" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="647" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B647" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E647" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F647" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="648" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B648" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E648" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F648" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="649" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B649" s="6" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E649" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F649" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="650" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B650" s="6" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E650" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F650" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="651" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B651" s="6" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E651" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F651" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="652" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B652" s="6" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E652" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F652" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="653" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B653" s="6" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E653" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F653" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="655" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B655" s="6" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E655" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F655" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="656" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B656" s="6" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E656" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F656" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>

--- a/clinica/iotools/data/clinical_specifications_adni.xlsx
+++ b/clinica/iotools/data/clinical_specifications_adni.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elina.thibeausutre/Documents/code/clinica/clinica/iotools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10CEFCB-3415-1343-9F05-2338584C81B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="28800" windowHeight="16180" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="participant.tsv" sheetId="1" r:id="rId1"/>
     <sheet name="sessions.tsv" sheetId="2" r:id="rId2"/>
     <sheet name="scans.tsv" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="1349">
   <si>
     <t>Field</t>
   </si>
@@ -4090,12 +4091,21 @@
   </si>
   <si>
     <t>diagnosis_sc</t>
+  </si>
+  <si>
+    <t>AVLT_Delay_TotInt</t>
+  </si>
+  <si>
+    <t>avlt_delay_intrusions</t>
+  </si>
+  <si>
+    <t>AVLT Delayed: The total intrusions entered by the examiner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -4419,7 +4429,7 @@
         <xdr:cNvPr id="1025" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4476,7 +4486,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4533,7 +4543,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4590,7 +4600,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4647,7 +4657,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4704,7 +4714,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4761,7 +4771,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4818,7 +4828,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4875,7 +4885,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4932,7 +4942,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4989,7 +4999,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5046,7 +5056,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5103,7 +5113,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5160,7 +5170,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5217,7 +5227,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5274,7 +5284,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5331,7 +5341,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5388,7 +5398,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5445,7 +5455,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5502,7 +5512,7 @@
         <xdr:cNvPr id="20" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5559,7 +5569,7 @@
         <xdr:cNvPr id="21" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5616,7 +5626,7 @@
         <xdr:cNvPr id="22" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5673,7 +5683,7 @@
         <xdr:cNvPr id="23" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5730,7 +5740,7 @@
         <xdr:cNvPr id="24" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5787,7 +5797,7 @@
         <xdr:cNvPr id="25" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5844,7 +5854,7 @@
         <xdr:cNvPr id="26" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5901,7 +5911,7 @@
         <xdr:cNvPr id="27" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5958,7 +5968,7 @@
         <xdr:cNvPr id="28" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6020,7 +6030,7 @@
         <xdr:cNvPr id="29" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6082,7 +6092,7 @@
         <xdr:cNvPr id="30" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6144,7 +6154,7 @@
         <xdr:cNvPr id="31" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6206,7 +6216,7 @@
         <xdr:cNvPr id="32" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6268,7 +6278,7 @@
         <xdr:cNvPr id="33" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6330,7 +6340,7 @@
         <xdr:cNvPr id="34" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6392,7 +6402,7 @@
         <xdr:cNvPr id="35" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6454,7 +6464,7 @@
         <xdr:cNvPr id="36" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6516,7 +6526,7 @@
         <xdr:cNvPr id="37" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6578,7 +6588,7 @@
         <xdr:cNvPr id="38" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6640,7 +6650,7 @@
         <xdr:cNvPr id="39" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6702,7 +6712,7 @@
         <xdr:cNvPr id="40" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6764,7 +6774,7 @@
         <xdr:cNvPr id="41" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6826,7 +6836,7 @@
         <xdr:cNvPr id="42" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6880,7 +6890,7 @@
         <xdr:cNvPr id="43" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C4D69D0-1097-4046-8882-5C40E94B04AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6931,7 +6941,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="AutoShape 1"/>
+        <xdr:cNvPr id="44" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6987,7 +7003,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="AutoShape 1"/>
+        <xdr:cNvPr id="45" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7043,7 +7065,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="AutoShape 1"/>
+        <xdr:cNvPr id="46" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7081,6 +7109,60 @@
           <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15671800" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -7349,10 +7431,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -7976,11 +8058,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F656"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F657"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8413,33 +8496,33 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>170</v>
+        <v>1348</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>171</v>
+        <v>1347</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>163</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>204</v>
+        <v>1346</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>163</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>205</v>
@@ -8447,50 +8530,50 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>163</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>93</v>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>93</v>
@@ -8498,16 +8581,16 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>93</v>
@@ -8515,16 +8598,16 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>93</v>
@@ -8532,16 +8615,16 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>93</v>
@@ -8549,16 +8632,16 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>93</v>
@@ -8566,16 +8649,16 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>93</v>
@@ -8583,16 +8666,16 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>93</v>
@@ -8600,16 +8683,16 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>93</v>
@@ -8617,16 +8700,16 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>93</v>
@@ -8634,16 +8717,16 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>93</v>
@@ -8651,16 +8734,16 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>93</v>
@@ -8668,50 +8751,50 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="6" t="s">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>207</v>
+      <c r="E43" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>207</v>
@@ -8719,16 +8802,16 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>207</v>
@@ -8736,16 +8819,16 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>207</v>
@@ -8753,16 +8836,16 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>207</v>
@@ -8770,16 +8853,16 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>207</v>
@@ -8787,16 +8870,16 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>207</v>
@@ -8804,16 +8887,16 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>207</v>
@@ -8821,16 +8904,16 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>207</v>
@@ -8838,16 +8921,16 @@
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>207</v>
@@ -8855,16 +8938,16 @@
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>207</v>
@@ -8872,16 +8955,16 @@
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>207</v>
@@ -8889,47 +8972,47 @@
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C58" s="6" t="s">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>94</v>
+      <c r="E57" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>155</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>198</v>
@@ -8940,13 +9023,13 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>155</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>198</v>
@@ -8957,13 +9040,13 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>155</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>198</v>
@@ -8972,29 +9055,32 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C63" s="6" t="s">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="F63" s="6" t="s">
+      <c r="D62" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>94</v>
@@ -9002,13 +9088,13 @@
     </row>
     <row r="65" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>94</v>
@@ -9016,13 +9102,13 @@
     </row>
     <row r="66" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>94</v>
@@ -9030,35 +9116,38 @@
     </row>
     <row r="67" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>138</v>
+    <row r="68" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>138</v>
@@ -9066,10 +9155,10 @@
     </row>
     <row r="71" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>138</v>
@@ -9077,10 +9166,10 @@
     </row>
     <row r="72" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>138</v>
@@ -9088,10 +9177,10 @@
     </row>
     <row r="73" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>138</v>
@@ -9099,10 +9188,10 @@
     </row>
     <row r="74" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>138</v>
@@ -9110,32 +9199,32 @@
     </row>
     <row r="75" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>136</v>
+        <v>266</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>288</v>
+    <row r="76" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>288</v>
@@ -9143,10 +9232,10 @@
     </row>
     <row r="79" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>288</v>
@@ -9154,10 +9243,10 @@
     </row>
     <row r="80" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>288</v>
@@ -9165,10 +9254,10 @@
     </row>
     <row r="81" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>288</v>
@@ -9176,10 +9265,10 @@
     </row>
     <row r="82" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>288</v>
@@ -9187,10 +9276,10 @@
     </row>
     <row r="83" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>288</v>
@@ -9198,10 +9287,10 @@
     </row>
     <row r="84" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>288</v>
@@ -9209,10 +9298,10 @@
     </row>
     <row r="85" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>288</v>
@@ -9220,10 +9309,10 @@
     </row>
     <row r="86" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>288</v>
@@ -9231,10 +9320,10 @@
     </row>
     <row r="87" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>288</v>
@@ -9242,10 +9331,10 @@
     </row>
     <row r="88" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>288</v>
@@ -9253,10 +9342,10 @@
     </row>
     <row r="89" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>288</v>
@@ -9264,10 +9353,10 @@
     </row>
     <row r="90" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>288</v>
@@ -9275,10 +9364,10 @@
     </row>
     <row r="91" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>288</v>
@@ -9286,10 +9375,10 @@
     </row>
     <row r="92" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>288</v>
@@ -9297,10 +9386,10 @@
     </row>
     <row r="93" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>288</v>
@@ -9308,10 +9397,10 @@
     </row>
     <row r="94" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>288</v>
@@ -9319,10 +9408,10 @@
     </row>
     <row r="95" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>288</v>
@@ -9330,10 +9419,10 @@
     </row>
     <row r="96" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>288</v>
@@ -9341,32 +9430,32 @@
     </row>
     <row r="97" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>289</v>
+    <row r="98" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>289</v>
@@ -9374,10 +9463,10 @@
     </row>
     <row r="101" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>289</v>
@@ -9385,10 +9474,10 @@
     </row>
     <row r="102" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>289</v>
@@ -9396,10 +9485,10 @@
     </row>
     <row r="103" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>289</v>
@@ -9407,10 +9496,10 @@
     </row>
     <row r="104" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>289</v>
@@ -9418,10 +9507,10 @@
     </row>
     <row r="105" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>289</v>
@@ -9429,10 +9518,10 @@
     </row>
     <row r="106" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>289</v>
@@ -9440,10 +9529,10 @@
     </row>
     <row r="107" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>289</v>
@@ -9451,10 +9540,10 @@
     </row>
     <row r="108" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>289</v>
@@ -9462,10 +9551,10 @@
     </row>
     <row r="109" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>289</v>
@@ -9473,10 +9562,10 @@
     </row>
     <row r="110" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>289</v>
@@ -9484,10 +9573,10 @@
     </row>
     <row r="111" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>289</v>
@@ -9495,10 +9584,10 @@
     </row>
     <row r="112" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>289</v>
@@ -9506,10 +9595,10 @@
     </row>
     <row r="113" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>289</v>
@@ -9517,10 +9606,10 @@
     </row>
     <row r="114" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>289</v>
@@ -9528,10 +9617,10 @@
     </row>
     <row r="115" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>289</v>
@@ -9539,10 +9628,10 @@
     </row>
     <row r="116" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>289</v>
@@ -9550,10 +9639,10 @@
     </row>
     <row r="117" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>289</v>
@@ -9561,10 +9650,10 @@
     </row>
     <row r="118" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>289</v>
@@ -9572,10 +9661,10 @@
     </row>
     <row r="119" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>289</v>
@@ -9583,10 +9672,10 @@
     </row>
     <row r="120" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>289</v>
@@ -9594,10 +9683,10 @@
     </row>
     <row r="121" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>289</v>
@@ -9605,10 +9694,10 @@
     </row>
     <row r="122" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>289</v>
@@ -9616,10 +9705,10 @@
     </row>
     <row r="123" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>289</v>
@@ -9627,10 +9716,10 @@
     </row>
     <row r="124" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>289</v>
@@ -9638,10 +9727,10 @@
     </row>
     <row r="125" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>289</v>
@@ -9649,10 +9738,10 @@
     </row>
     <row r="126" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>289</v>
@@ -9660,10 +9749,10 @@
     </row>
     <row r="127" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>289</v>
@@ -9671,10 +9760,10 @@
     </row>
     <row r="128" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>289</v>
@@ -9682,10 +9771,10 @@
     </row>
     <row r="129" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>289</v>
@@ -9693,10 +9782,10 @@
     </row>
     <row r="130" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>289</v>
@@ -9704,10 +9793,10 @@
     </row>
     <row r="131" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>289</v>
@@ -9715,10 +9804,10 @@
     </row>
     <row r="132" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>289</v>
@@ -9726,10 +9815,10 @@
     </row>
     <row r="133" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>289</v>
@@ -9737,10 +9826,10 @@
     </row>
     <row r="134" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>289</v>
@@ -9748,10 +9837,10 @@
     </row>
     <row r="135" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>289</v>
@@ -9759,10 +9848,10 @@
     </row>
     <row r="136" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>289</v>
@@ -9770,10 +9859,10 @@
     </row>
     <row r="137" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>289</v>
@@ -9781,10 +9870,10 @@
     </row>
     <row r="138" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>289</v>
@@ -9792,10 +9881,10 @@
     </row>
     <row r="139" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>289</v>
@@ -9803,10 +9892,10 @@
     </row>
     <row r="140" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>289</v>
@@ -9814,10 +9903,10 @@
     </row>
     <row r="141" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>289</v>
@@ -9825,10 +9914,10 @@
     </row>
     <row r="142" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>289</v>
@@ -9836,10 +9925,10 @@
     </row>
     <row r="143" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>289</v>
@@ -9847,10 +9936,10 @@
     </row>
     <row r="144" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>289</v>
@@ -9858,10 +9947,10 @@
     </row>
     <row r="145" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>289</v>
@@ -9869,10 +9958,10 @@
     </row>
     <row r="146" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>289</v>
@@ -9880,10 +9969,10 @@
     </row>
     <row r="147" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>289</v>
@@ -9891,10 +9980,10 @@
     </row>
     <row r="148" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>289</v>
@@ -9902,32 +9991,32 @@
     </row>
     <row r="149" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="151" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F151" s="6" t="s">
-        <v>341</v>
+    <row r="150" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="152" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>341</v>
@@ -9935,10 +10024,10 @@
     </row>
     <row r="153" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>341</v>
@@ -9946,10 +10035,10 @@
     </row>
     <row r="154" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>341</v>
@@ -9957,10 +10046,10 @@
     </row>
     <row r="155" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>341</v>
@@ -9968,10 +10057,10 @@
     </row>
     <row r="156" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>341</v>
@@ -9979,10 +10068,10 @@
     </row>
     <row r="157" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>341</v>
@@ -9990,10 +10079,10 @@
     </row>
     <row r="158" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>341</v>
@@ -10001,10 +10090,10 @@
     </row>
     <row r="159" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>341</v>
@@ -10012,10 +10101,10 @@
     </row>
     <row r="160" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>341</v>
@@ -10023,10 +10112,10 @@
     </row>
     <row r="161" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F161" s="6" t="s">
         <v>341</v>
@@ -10034,10 +10123,10 @@
     </row>
     <row r="162" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>341</v>
@@ -10045,10 +10134,10 @@
     </row>
     <row r="163" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>341</v>
@@ -10056,10 +10145,10 @@
     </row>
     <row r="164" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>341</v>
@@ -10067,10 +10156,10 @@
     </row>
     <row r="165" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>341</v>
@@ -10078,10 +10167,10 @@
     </row>
     <row r="166" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>341</v>
@@ -10089,10 +10178,10 @@
     </row>
     <row r="167" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>341</v>
@@ -10100,10 +10189,10 @@
     </row>
     <row r="168" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>341</v>
@@ -10111,10 +10200,10 @@
     </row>
     <row r="169" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>341</v>
@@ -10122,10 +10211,10 @@
     </row>
     <row r="170" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>341</v>
@@ -10133,10 +10222,10 @@
     </row>
     <row r="171" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>341</v>
@@ -10144,10 +10233,10 @@
     </row>
     <row r="172" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>341</v>
@@ -10155,10 +10244,10 @@
     </row>
     <row r="173" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>341</v>
@@ -10166,10 +10255,10 @@
     </row>
     <row r="174" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>341</v>
@@ -10177,10 +10266,10 @@
     </row>
     <row r="175" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>341</v>
@@ -10188,10 +10277,10 @@
     </row>
     <row r="176" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>341</v>
@@ -10199,10 +10288,10 @@
     </row>
     <row r="177" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>341</v>
@@ -10210,10 +10299,10 @@
     </row>
     <row r="178" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>341</v>
@@ -10221,10 +10310,10 @@
     </row>
     <row r="179" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F179" s="6" t="s">
         <v>341</v>
@@ -10232,10 +10321,10 @@
     </row>
     <row r="180" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>341</v>
@@ -10243,10 +10332,10 @@
     </row>
     <row r="181" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>341</v>
@@ -10254,10 +10343,10 @@
     </row>
     <row r="182" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>341</v>
@@ -10265,10 +10354,10 @@
     </row>
     <row r="183" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>341</v>
@@ -10276,10 +10365,10 @@
     </row>
     <row r="184" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>341</v>
@@ -10287,10 +10376,10 @@
     </row>
     <row r="185" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>341</v>
@@ -10298,10 +10387,10 @@
     </row>
     <row r="186" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>341</v>
@@ -10309,10 +10398,10 @@
     </row>
     <row r="187" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>341</v>
@@ -10320,10 +10409,10 @@
     </row>
     <row r="188" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F188" s="6" t="s">
         <v>341</v>
@@ -10331,10 +10420,10 @@
     </row>
     <row r="189" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>341</v>
@@ -10342,10 +10431,10 @@
     </row>
     <row r="190" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>341</v>
@@ -10353,10 +10442,10 @@
     </row>
     <row r="191" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>341</v>
@@ -10364,10 +10453,10 @@
     </row>
     <row r="192" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>341</v>
@@ -10375,10 +10464,10 @@
     </row>
     <row r="193" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>341</v>
@@ -10386,10 +10475,10 @@
     </row>
     <row r="194" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>341</v>
@@ -10397,10 +10486,10 @@
     </row>
     <row r="195" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>341</v>
@@ -10408,10 +10497,10 @@
     </row>
     <row r="196" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>341</v>
@@ -10419,10 +10508,10 @@
     </row>
     <row r="197" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>341</v>
@@ -10430,10 +10519,10 @@
     </row>
     <row r="198" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>341</v>
@@ -10441,10 +10530,10 @@
     </row>
     <row r="199" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>341</v>
@@ -10452,10 +10541,10 @@
     </row>
     <row r="200" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>341</v>
@@ -10463,32 +10552,32 @@
     </row>
     <row r="201" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="203" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="F203" s="6" t="s">
-        <v>342</v>
+    <row r="202" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B202" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="204" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>342</v>
@@ -10496,10 +10585,10 @@
     </row>
     <row r="205" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F205" s="6" t="s">
         <v>342</v>
@@ -10507,10 +10596,10 @@
     </row>
     <row r="206" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>342</v>
@@ -10518,10 +10607,10 @@
     </row>
     <row r="207" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>342</v>
@@ -10529,10 +10618,10 @@
     </row>
     <row r="208" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>342</v>
@@ -10540,10 +10629,10 @@
     </row>
     <row r="209" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>342</v>
@@ -10551,10 +10640,10 @@
     </row>
     <row r="210" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>342</v>
@@ -10562,10 +10651,10 @@
     </row>
     <row r="211" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>342</v>
@@ -10573,10 +10662,10 @@
     </row>
     <row r="212" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F212" s="6" t="s">
         <v>342</v>
@@ -10584,10 +10673,10 @@
     </row>
     <row r="213" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>342</v>
@@ -10595,10 +10684,10 @@
     </row>
     <row r="214" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>342</v>
@@ -10606,10 +10695,10 @@
     </row>
     <row r="215" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>342</v>
@@ -10617,10 +10706,10 @@
     </row>
     <row r="216" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>342</v>
@@ -10628,10 +10717,10 @@
     </row>
     <row r="217" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F217" s="6" t="s">
         <v>342</v>
@@ -10639,10 +10728,10 @@
     </row>
     <row r="218" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F218" s="6" t="s">
         <v>342</v>
@@ -10650,10 +10739,10 @@
     </row>
     <row r="219" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F219" s="6" t="s">
         <v>342</v>
@@ -10661,10 +10750,10 @@
     </row>
     <row r="220" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F220" s="6" t="s">
         <v>342</v>
@@ -10672,10 +10761,10 @@
     </row>
     <row r="221" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F221" s="6" t="s">
         <v>342</v>
@@ -10683,10 +10772,10 @@
     </row>
     <row r="222" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F222" s="6" t="s">
         <v>342</v>
@@ -10694,10 +10783,10 @@
     </row>
     <row r="223" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F223" s="6" t="s">
         <v>342</v>
@@ -10705,10 +10794,10 @@
     </row>
     <row r="224" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F224" s="6" t="s">
         <v>342</v>
@@ -10716,10 +10805,10 @@
     </row>
     <row r="225" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F225" s="6" t="s">
         <v>342</v>
@@ -10727,10 +10816,10 @@
     </row>
     <row r="226" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>342</v>
@@ -10738,10 +10827,10 @@
     </row>
     <row r="227" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>342</v>
@@ -10749,10 +10838,10 @@
     </row>
     <row r="228" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F228" s="6" t="s">
         <v>342</v>
@@ -10760,10 +10849,10 @@
     </row>
     <row r="229" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F229" s="6" t="s">
         <v>342</v>
@@ -10771,10 +10860,10 @@
     </row>
     <row r="230" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>342</v>
@@ -10782,10 +10871,10 @@
     </row>
     <row r="231" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F231" s="6" t="s">
         <v>342</v>
@@ -10793,10 +10882,10 @@
     </row>
     <row r="232" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F232" s="6" t="s">
         <v>342</v>
@@ -10804,10 +10893,10 @@
     </row>
     <row r="233" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F233" s="6" t="s">
         <v>342</v>
@@ -10815,10 +10904,10 @@
     </row>
     <row r="234" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F234" s="6" t="s">
         <v>342</v>
@@ -10826,10 +10915,10 @@
     </row>
     <row r="235" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F235" s="6" t="s">
         <v>342</v>
@@ -10837,10 +10926,10 @@
     </row>
     <row r="236" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F236" s="6" t="s">
         <v>342</v>
@@ -10848,10 +10937,10 @@
     </row>
     <row r="237" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F237" s="6" t="s">
         <v>342</v>
@@ -10859,10 +10948,10 @@
     </row>
     <row r="238" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F238" s="6" t="s">
         <v>342</v>
@@ -10870,10 +10959,10 @@
     </row>
     <row r="239" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F239" s="6" t="s">
         <v>342</v>
@@ -10881,10 +10970,10 @@
     </row>
     <row r="240" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F240" s="6" t="s">
         <v>342</v>
@@ -10892,10 +10981,10 @@
     </row>
     <row r="241" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F241" s="6" t="s">
         <v>342</v>
@@ -10903,10 +10992,10 @@
     </row>
     <row r="242" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F242" s="6" t="s">
         <v>342</v>
@@ -10914,10 +11003,10 @@
     </row>
     <row r="243" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F243" s="6" t="s">
         <v>342</v>
@@ -10925,10 +11014,10 @@
     </row>
     <row r="244" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F244" s="6" t="s">
         <v>342</v>
@@ -10936,10 +11025,10 @@
     </row>
     <row r="245" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F245" s="6" t="s">
         <v>342</v>
@@ -10947,10 +11036,10 @@
     </row>
     <row r="246" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F246" s="6" t="s">
         <v>342</v>
@@ -10958,10 +11047,10 @@
     </row>
     <row r="247" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F247" s="6" t="s">
         <v>342</v>
@@ -10969,10 +11058,10 @@
     </row>
     <row r="248" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F248" s="6" t="s">
         <v>342</v>
@@ -10980,10 +11069,10 @@
     </row>
     <row r="249" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F249" s="6" t="s">
         <v>342</v>
@@ -10991,10 +11080,10 @@
     </row>
     <row r="250" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F250" s="6" t="s">
         <v>342</v>
@@ -11002,10 +11091,10 @@
     </row>
     <row r="251" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F251" s="6" t="s">
         <v>342</v>
@@ -11013,10 +11102,10 @@
     </row>
     <row r="252" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F252" s="6" t="s">
         <v>342</v>
@@ -11024,10 +11113,10 @@
     </row>
     <row r="253" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F253" s="6" t="s">
         <v>342</v>
@@ -11035,10 +11124,10 @@
     </row>
     <row r="254" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F254" s="6" t="s">
         <v>342</v>
@@ -11046,10 +11135,10 @@
     </row>
     <row r="255" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F255" s="6" t="s">
         <v>342</v>
@@ -11057,10 +11146,10 @@
     </row>
     <row r="256" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F256" s="6" t="s">
         <v>342</v>
@@ -11068,10 +11157,10 @@
     </row>
     <row r="257" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F257" s="6" t="s">
         <v>342</v>
@@ -11079,10 +11168,10 @@
     </row>
     <row r="258" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F258" s="6" t="s">
         <v>342</v>
@@ -11090,10 +11179,10 @@
     </row>
     <row r="259" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F259" s="6" t="s">
         <v>342</v>
@@ -11101,32 +11190,32 @@
     </row>
     <row r="260" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F260" s="6" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="262" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B262" s="6" t="s">
-        <v>956</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="F262" s="6" t="s">
-        <v>401</v>
+    <row r="261" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B261" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F261" s="6" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="263" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F263" s="6" t="s">
         <v>401</v>
@@ -11134,10 +11223,10 @@
     </row>
     <row r="264" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F264" s="6" t="s">
         <v>401</v>
@@ -11145,10 +11234,10 @@
     </row>
     <row r="265" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F265" s="6" t="s">
         <v>401</v>
@@ -11156,10 +11245,10 @@
     </row>
     <row r="266" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F266" s="6" t="s">
         <v>401</v>
@@ -11167,10 +11256,10 @@
     </row>
     <row r="267" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F267" s="6" t="s">
         <v>401</v>
@@ -11178,10 +11267,10 @@
     </row>
     <row r="268" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F268" s="6" t="s">
         <v>401</v>
@@ -11189,10 +11278,10 @@
     </row>
     <row r="269" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F269" s="6" t="s">
         <v>401</v>
@@ -11200,10 +11289,10 @@
     </row>
     <row r="270" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F270" s="6" t="s">
         <v>401</v>
@@ -11211,10 +11300,10 @@
     </row>
     <row r="271" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F271" s="6" t="s">
         <v>401</v>
@@ -11222,10 +11311,10 @@
     </row>
     <row r="272" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F272" s="6" t="s">
         <v>401</v>
@@ -11233,10 +11322,10 @@
     </row>
     <row r="273" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F273" s="6" t="s">
         <v>401</v>
@@ -11244,10 +11333,10 @@
     </row>
     <row r="274" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F274" s="6" t="s">
         <v>401</v>
@@ -11255,10 +11344,10 @@
     </row>
     <row r="275" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F275" s="6" t="s">
         <v>401</v>
@@ -11266,10 +11355,10 @@
     </row>
     <row r="276" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F276" s="6" t="s">
         <v>401</v>
@@ -11277,10 +11366,10 @@
     </row>
     <row r="277" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F277" s="6" t="s">
         <v>401</v>
@@ -11288,10 +11377,10 @@
     </row>
     <row r="278" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F278" s="6" t="s">
         <v>401</v>
@@ -11299,10 +11388,10 @@
     </row>
     <row r="279" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F279" s="6" t="s">
         <v>401</v>
@@ -11310,32 +11399,32 @@
     </row>
     <row r="280" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F280" s="6" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="282" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B282" s="6" t="s">
-        <v>975</v>
-      </c>
-      <c r="E282" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="F282" s="6" t="s">
-        <v>421</v>
+    <row r="281" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B281" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F281" s="6" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="283" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F283" s="6" t="s">
         <v>421</v>
@@ -11343,10 +11432,10 @@
     </row>
     <row r="284" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F284" s="6" t="s">
         <v>421</v>
@@ -11354,10 +11443,10 @@
     </row>
     <row r="285" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F285" s="6" t="s">
         <v>421</v>
@@ -11365,10 +11454,10 @@
     </row>
     <row r="286" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F286" s="6" t="s">
         <v>421</v>
@@ -11376,10 +11465,10 @@
     </row>
     <row r="287" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F287" s="6" t="s">
         <v>421</v>
@@ -11387,10 +11476,10 @@
     </row>
     <row r="288" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F288" s="6" t="s">
         <v>421</v>
@@ -11398,10 +11487,10 @@
     </row>
     <row r="289" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F289" s="6" t="s">
         <v>421</v>
@@ -11409,32 +11498,32 @@
     </row>
     <row r="290" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F290" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="292" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B292" s="6" t="s">
-        <v>984</v>
-      </c>
-      <c r="E292" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="F292" s="6" t="s">
-        <v>431</v>
+    <row r="291" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B291" s="6" t="s">
+        <v>983</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F291" s="6" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="293" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F293" s="6" t="s">
         <v>431</v>
@@ -11442,10 +11531,10 @@
     </row>
     <row r="294" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F294" s="6" t="s">
         <v>431</v>
@@ -11453,10 +11542,10 @@
     </row>
     <row r="295" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F295" s="6" t="s">
         <v>431</v>
@@ -11464,10 +11553,10 @@
     </row>
     <row r="296" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F296" s="6" t="s">
         <v>431</v>
@@ -11475,10 +11564,10 @@
     </row>
     <row r="297" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F297" s="6" t="s">
         <v>431</v>
@@ -11486,10 +11575,10 @@
     </row>
     <row r="298" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F298" s="6" t="s">
         <v>431</v>
@@ -11497,10 +11586,10 @@
     </row>
     <row r="299" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F299" s="6" t="s">
         <v>431</v>
@@ -11508,10 +11597,10 @@
     </row>
     <row r="300" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F300" s="6" t="s">
         <v>431</v>
@@ -11519,10 +11608,10 @@
     </row>
     <row r="301" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F301" s="6" t="s">
         <v>431</v>
@@ -11530,10 +11619,10 @@
     </row>
     <row r="302" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F302" s="6" t="s">
         <v>431</v>
@@ -11541,10 +11630,10 @@
     </row>
     <row r="303" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E303" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F303" s="6" t="s">
         <v>431</v>
@@ -11552,10 +11641,10 @@
     </row>
     <row r="304" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E304" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F304" s="6" t="s">
         <v>431</v>
@@ -11563,10 +11652,10 @@
     </row>
     <row r="305" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F305" s="6" t="s">
         <v>431</v>
@@ -11574,10 +11663,10 @@
     </row>
     <row r="306" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F306" s="6" t="s">
         <v>431</v>
@@ -11585,10 +11674,10 @@
     </row>
     <row r="307" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B307" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F307" s="6" t="s">
         <v>431</v>
@@ -11596,10 +11685,10 @@
     </row>
     <row r="308" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B308" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F308" s="6" t="s">
         <v>431</v>
@@ -11607,10 +11696,10 @@
     </row>
     <row r="309" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F309" s="6" t="s">
         <v>431</v>
@@ -11618,10 +11707,10 @@
     </row>
     <row r="310" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B310" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F310" s="6" t="s">
         <v>431</v>
@@ -11629,10 +11718,10 @@
     </row>
     <row r="311" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B311" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F311" s="6" t="s">
         <v>431</v>
@@ -11640,10 +11729,10 @@
     </row>
     <row r="312" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B312" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F312" s="6" t="s">
         <v>431</v>
@@ -11651,10 +11740,10 @@
     </row>
     <row r="313" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F313" s="6" t="s">
         <v>431</v>
@@ -11662,10 +11751,10 @@
     </row>
     <row r="314" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F314" s="6" t="s">
         <v>431</v>
@@ -11673,10 +11762,10 @@
     </row>
     <row r="315" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B315" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F315" s="6" t="s">
         <v>431</v>
@@ -11684,10 +11773,10 @@
     </row>
     <row r="316" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B316" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F316" s="6" t="s">
         <v>431</v>
@@ -11695,10 +11784,10 @@
     </row>
     <row r="317" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F317" s="6" t="s">
         <v>431</v>
@@ -11706,10 +11795,10 @@
     </row>
     <row r="318" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F318" s="6" t="s">
         <v>431</v>
@@ -11717,10 +11806,10 @@
     </row>
     <row r="319" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F319" s="6" t="s">
         <v>431</v>
@@ -11728,10 +11817,10 @@
     </row>
     <row r="320" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F320" s="6" t="s">
         <v>431</v>
@@ -11739,10 +11828,10 @@
     </row>
     <row r="321" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F321" s="6" t="s">
         <v>431</v>
@@ -11750,10 +11839,10 @@
     </row>
     <row r="322" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F322" s="6" t="s">
         <v>431</v>
@@ -11761,10 +11850,10 @@
     </row>
     <row r="323" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F323" s="6" t="s">
         <v>431</v>
@@ -11772,10 +11861,10 @@
     </row>
     <row r="324" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F324" s="6" t="s">
         <v>431</v>
@@ -11783,10 +11872,10 @@
     </row>
     <row r="325" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F325" s="6" t="s">
         <v>431</v>
@@ -11794,10 +11883,10 @@
     </row>
     <row r="326" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F326" s="6" t="s">
         <v>431</v>
@@ -11805,10 +11894,10 @@
     </row>
     <row r="327" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="6" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F327" s="6" t="s">
         <v>431</v>
@@ -11816,10 +11905,10 @@
     </row>
     <row r="328" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F328" s="6" t="s">
         <v>431</v>
@@ -11827,10 +11916,10 @@
     </row>
     <row r="329" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F329" s="6" t="s">
         <v>431</v>
@@ -11838,10 +11927,10 @@
     </row>
     <row r="330" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F330" s="6" t="s">
         <v>431</v>
@@ -11849,10 +11938,10 @@
     </row>
     <row r="331" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F331" s="6" t="s">
         <v>431</v>
@@ -11860,10 +11949,10 @@
     </row>
     <row r="332" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F332" s="6" t="s">
         <v>431</v>
@@ -11871,10 +11960,10 @@
     </row>
     <row r="333" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F333" s="6" t="s">
         <v>431</v>
@@ -11882,32 +11971,32 @@
     </row>
     <row r="334" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>200</v>
+        <v>473</v>
       </c>
       <c r="F334" s="6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="336" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B336" s="6" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E336" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="F336" s="6" t="s">
-        <v>474</v>
+    <row r="335" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B335" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E335" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F335" s="6" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="337" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="6" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F337" s="6" t="s">
         <v>474</v>
@@ -11915,10 +12004,10 @@
     </row>
     <row r="338" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F338" s="6" t="s">
         <v>474</v>
@@ -11926,10 +12015,10 @@
     </row>
     <row r="339" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F339" s="6" t="s">
         <v>474</v>
@@ -11937,10 +12026,10 @@
     </row>
     <row r="340" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="6" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F340" s="6" t="s">
         <v>474</v>
@@ -11948,10 +12037,10 @@
     </row>
     <row r="341" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E341" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F341" s="6" t="s">
         <v>474</v>
@@ -11959,10 +12048,10 @@
     </row>
     <row r="342" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B342" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F342" s="6" t="s">
         <v>474</v>
@@ -11970,10 +12059,10 @@
     </row>
     <row r="343" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="6" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F343" s="6" t="s">
         <v>474</v>
@@ -11981,10 +12070,10 @@
     </row>
     <row r="344" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="6" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F344" s="6" t="s">
         <v>474</v>
@@ -11992,10 +12081,10 @@
     </row>
     <row r="345" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="6" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F345" s="6" t="s">
         <v>474</v>
@@ -12003,10 +12092,10 @@
     </row>
     <row r="346" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="6" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F346" s="6" t="s">
         <v>474</v>
@@ -12014,10 +12103,10 @@
     </row>
     <row r="347" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F347" s="6" t="s">
         <v>474</v>
@@ -12025,10 +12114,10 @@
     </row>
     <row r="348" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="6" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F348" s="6" t="s">
         <v>474</v>
@@ -12036,10 +12125,10 @@
     </row>
     <row r="349" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B349" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F349" s="6" t="s">
         <v>474</v>
@@ -12047,10 +12136,10 @@
     </row>
     <row r="350" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F350" s="6" t="s">
         <v>474</v>
@@ -12058,10 +12147,10 @@
     </row>
     <row r="351" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B351" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F351" s="6" t="s">
         <v>474</v>
@@ -12069,10 +12158,10 @@
     </row>
     <row r="352" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B352" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F352" s="6" t="s">
         <v>474</v>
@@ -12080,10 +12169,10 @@
     </row>
     <row r="353" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B353" s="6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E353" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F353" s="6" t="s">
         <v>474</v>
@@ -12091,10 +12180,10 @@
     </row>
     <row r="354" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E354" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F354" s="6" t="s">
         <v>474</v>
@@ -12102,10 +12191,10 @@
     </row>
     <row r="355" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B355" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E355" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F355" s="6" t="s">
         <v>474</v>
@@ -12113,10 +12202,10 @@
     </row>
     <row r="356" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B356" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E356" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F356" s="6" t="s">
         <v>474</v>
@@ -12124,10 +12213,10 @@
     </row>
     <row r="357" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="6" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E357" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F357" s="6" t="s">
         <v>474</v>
@@ -12135,10 +12224,10 @@
     </row>
     <row r="358" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E358" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F358" s="6" t="s">
         <v>474</v>
@@ -12146,10 +12235,10 @@
     </row>
     <row r="359" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E359" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F359" s="6" t="s">
         <v>474</v>
@@ -12157,10 +12246,10 @@
     </row>
     <row r="360" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E360" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F360" s="6" t="s">
         <v>474</v>
@@ -12168,32 +12257,32 @@
     </row>
     <row r="361" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="6" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E361" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F361" s="6" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="363" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B363" s="6" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E363" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="F363" s="6" t="s">
-        <v>205</v>
+    <row r="362" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B362" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E362" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F362" s="6" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="364" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="6" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E364" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F364" s="6" t="s">
         <v>205</v>
@@ -12201,10 +12290,10 @@
     </row>
     <row r="365" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F365" s="6" t="s">
         <v>205</v>
@@ -12212,10 +12301,10 @@
     </row>
     <row r="366" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F366" s="6" t="s">
         <v>205</v>
@@ -12223,10 +12312,10 @@
     </row>
     <row r="367" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E367" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F367" s="6" t="s">
         <v>205</v>
@@ -12234,10 +12323,10 @@
     </row>
     <row r="368" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E368" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F368" s="6" t="s">
         <v>205</v>
@@ -12245,10 +12334,10 @@
     </row>
     <row r="369" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="6" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F369" s="6" t="s">
         <v>205</v>
@@ -12256,10 +12345,10 @@
     </row>
     <row r="370" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E370" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F370" s="6" t="s">
         <v>205</v>
@@ -12267,10 +12356,10 @@
     </row>
     <row r="371" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F371" s="6" t="s">
         <v>205</v>
@@ -12278,10 +12367,10 @@
     </row>
     <row r="372" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E372" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F372" s="6" t="s">
         <v>205</v>
@@ -12289,10 +12378,10 @@
     </row>
     <row r="373" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E373" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F373" s="6" t="s">
         <v>205</v>
@@ -12300,10 +12389,10 @@
     </row>
     <row r="374" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="6" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E374" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F374" s="6" t="s">
         <v>205</v>
@@ -12311,10 +12400,10 @@
     </row>
     <row r="375" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E375" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F375" s="6" t="s">
         <v>205</v>
@@ -12322,10 +12411,10 @@
     </row>
     <row r="376" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E376" s="6" t="s">
-        <v>206</v>
+        <v>513</v>
       </c>
       <c r="F376" s="6" t="s">
         <v>205</v>
@@ -12333,10 +12422,10 @@
     </row>
     <row r="377" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E377" s="6" t="s">
-        <v>514</v>
+        <v>206</v>
       </c>
       <c r="F377" s="6" t="s">
         <v>205</v>
@@ -12344,10 +12433,10 @@
     </row>
     <row r="378" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B378" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E378" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F378" s="6" t="s">
         <v>205</v>
@@ -12355,10 +12444,10 @@
     </row>
     <row r="379" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B379" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E379" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F379" s="6" t="s">
         <v>205</v>
@@ -12366,10 +12455,10 @@
     </row>
     <row r="380" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B380" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E380" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F380" s="6" t="s">
         <v>205</v>
@@ -12377,10 +12466,10 @@
     </row>
     <row r="381" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B381" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E381" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F381" s="6" t="s">
         <v>205</v>
@@ -12388,10 +12477,10 @@
     </row>
     <row r="382" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B382" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E382" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F382" s="6" t="s">
         <v>205</v>
@@ -12399,10 +12488,10 @@
     </row>
     <row r="383" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B383" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E383" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F383" s="6" t="s">
         <v>205</v>
@@ -12410,10 +12499,10 @@
     </row>
     <row r="384" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E384" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F384" s="6" t="s">
         <v>205</v>
@@ -12421,10 +12510,10 @@
     </row>
     <row r="385" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E385" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F385" s="6" t="s">
         <v>205</v>
@@ -12432,10 +12521,10 @@
     </row>
     <row r="386" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E386" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F386" s="6" t="s">
         <v>205</v>
@@ -12443,10 +12532,10 @@
     </row>
     <row r="387" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="6" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E387" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F387" s="6" t="s">
         <v>205</v>
@@ -12454,10 +12543,10 @@
     </row>
     <row r="388" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B388" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E388" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F388" s="6" t="s">
         <v>205</v>
@@ -12465,10 +12554,10 @@
     </row>
     <row r="389" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E389" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F389" s="6" t="s">
         <v>205</v>
@@ -12476,10 +12565,10 @@
     </row>
     <row r="390" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E390" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F390" s="6" t="s">
         <v>205</v>
@@ -12487,10 +12576,10 @@
     </row>
     <row r="391" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="6" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F391" s="6" t="s">
         <v>205</v>
@@ -12498,10 +12587,10 @@
     </row>
     <row r="392" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E392" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F392" s="6" t="s">
         <v>205</v>
@@ -12509,10 +12598,10 @@
     </row>
     <row r="393" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B393" s="6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E393" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F393" s="6" t="s">
         <v>205</v>
@@ -12520,10 +12609,10 @@
     </row>
     <row r="394" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B394" s="6" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E394" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F394" s="6" t="s">
         <v>205</v>
@@ -12531,10 +12620,10 @@
     </row>
     <row r="395" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B395" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E395" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F395" s="6" t="s">
         <v>205</v>
@@ -12542,10 +12631,10 @@
     </row>
     <row r="396" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B396" s="6" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E396" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F396" s="6" t="s">
         <v>205</v>
@@ -12553,10 +12642,10 @@
     </row>
     <row r="397" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B397" s="6" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E397" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F397" s="6" t="s">
         <v>205</v>
@@ -12564,10 +12653,10 @@
     </row>
     <row r="398" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B398" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E398" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F398" s="6" t="s">
         <v>205</v>
@@ -12575,10 +12664,10 @@
     </row>
     <row r="399" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B399" s="6" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E399" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F399" s="6" t="s">
         <v>205</v>
@@ -12586,10 +12675,10 @@
     </row>
     <row r="400" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B400" s="6" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E400" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F400" s="6" t="s">
         <v>205</v>
@@ -12597,10 +12686,10 @@
     </row>
     <row r="401" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B401" s="6" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E401" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F401" s="6" t="s">
         <v>205</v>
@@ -12608,10 +12697,10 @@
     </row>
     <row r="402" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="6" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E402" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F402" s="6" t="s">
         <v>205</v>
@@ -12619,10 +12708,10 @@
     </row>
     <row r="403" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E403" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F403" s="6" t="s">
         <v>205</v>
@@ -12630,10 +12719,10 @@
     </row>
     <row r="404" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B404" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E404" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F404" s="6" t="s">
         <v>205</v>
@@ -12641,10 +12730,10 @@
     </row>
     <row r="405" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B405" s="6" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E405" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F405" s="6" t="s">
         <v>205</v>
@@ -12652,10 +12741,10 @@
     </row>
     <row r="406" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B406" s="6" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E406" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F406" s="6" t="s">
         <v>205</v>
@@ -12663,10 +12752,10 @@
     </row>
     <row r="407" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B407" s="6" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E407" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F407" s="6" t="s">
         <v>205</v>
@@ -12674,10 +12763,10 @@
     </row>
     <row r="408" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B408" s="6" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E408" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F408" s="6" t="s">
         <v>205</v>
@@ -12685,10 +12774,10 @@
     </row>
     <row r="409" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B409" s="6" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E409" s="6" t="s">
-        <v>250</v>
+        <v>545</v>
       </c>
       <c r="F409" s="6" t="s">
         <v>205</v>
@@ -12696,10 +12785,10 @@
     </row>
     <row r="410" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B410" s="6" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E410" s="6" t="s">
-        <v>546</v>
+        <v>250</v>
       </c>
       <c r="F410" s="6" t="s">
         <v>205</v>
@@ -12707,10 +12796,10 @@
     </row>
     <row r="411" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B411" s="6" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E411" s="6" t="s">
-        <v>204</v>
+        <v>546</v>
       </c>
       <c r="F411" s="6" t="s">
         <v>205</v>
@@ -12718,10 +12807,10 @@
     </row>
     <row r="412" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B412" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E412" s="6" t="s">
-        <v>547</v>
+        <v>204</v>
       </c>
       <c r="F412" s="6" t="s">
         <v>205</v>
@@ -12729,10 +12818,10 @@
     </row>
     <row r="413" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B413" s="6" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E413" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F413" s="6" t="s">
         <v>205</v>
@@ -12740,10 +12829,10 @@
     </row>
     <row r="414" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B414" s="6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E414" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F414" s="6" t="s">
         <v>205</v>
@@ -12751,10 +12840,10 @@
     </row>
     <row r="415" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B415" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E415" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F415" s="6" t="s">
         <v>205</v>
@@ -12762,10 +12851,10 @@
     </row>
     <row r="416" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B416" s="6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E416" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F416" s="6" t="s">
         <v>205</v>
@@ -12773,10 +12862,10 @@
     </row>
     <row r="417" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B417" s="6" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E417" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F417" s="6" t="s">
         <v>205</v>
@@ -12784,10 +12873,10 @@
     </row>
     <row r="418" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B418" s="6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E418" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F418" s="6" t="s">
         <v>205</v>
@@ -12795,10 +12884,10 @@
     </row>
     <row r="419" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B419" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E419" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F419" s="6" t="s">
         <v>205</v>
@@ -12806,10 +12895,10 @@
     </row>
     <row r="420" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B420" s="6" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E420" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F420" s="6" t="s">
         <v>205</v>
@@ -12817,10 +12906,10 @@
     </row>
     <row r="421" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E421" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F421" s="6" t="s">
         <v>205</v>
@@ -12828,10 +12917,10 @@
     </row>
     <row r="422" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E422" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F422" s="6" t="s">
         <v>205</v>
@@ -12839,10 +12928,10 @@
     </row>
     <row r="423" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E423" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F423" s="6" t="s">
         <v>205</v>
@@ -12850,10 +12939,10 @@
     </row>
     <row r="424" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B424" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E424" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F424" s="6" t="s">
         <v>205</v>
@@ -12861,10 +12950,10 @@
     </row>
     <row r="425" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="6" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E425" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F425" s="6" t="s">
         <v>205</v>
@@ -12872,10 +12961,10 @@
     </row>
     <row r="426" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B426" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E426" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F426" s="6" t="s">
         <v>205</v>
@@ -12883,10 +12972,10 @@
     </row>
     <row r="427" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B427" s="6" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E427" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F427" s="6" t="s">
         <v>205</v>
@@ -12894,10 +12983,10 @@
     </row>
     <row r="428" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B428" s="6" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E428" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F428" s="6" t="s">
         <v>205</v>
@@ -12905,10 +12994,10 @@
     </row>
     <row r="429" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B429" s="6" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E429" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F429" s="6" t="s">
         <v>205</v>
@@ -12916,10 +13005,10 @@
     </row>
     <row r="430" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B430" s="6" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E430" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F430" s="6" t="s">
         <v>205</v>
@@ -12927,10 +13016,10 @@
     </row>
     <row r="431" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B431" s="6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E431" s="6" t="s">
-        <v>199</v>
+        <v>565</v>
       </c>
       <c r="F431" s="6" t="s">
         <v>205</v>
@@ -12938,10 +13027,10 @@
     </row>
     <row r="432" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B432" s="6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E432" s="6" t="s">
-        <v>566</v>
+        <v>199</v>
       </c>
       <c r="F432" s="6" t="s">
         <v>205</v>
@@ -12949,32 +13038,32 @@
     </row>
     <row r="433" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B433" s="6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E433" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F433" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="435" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B435" s="6" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E435" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="F435" s="6" t="s">
-        <v>607</v>
+    <row r="434" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B434" s="6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E434" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="F434" s="6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="436" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B436" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E436" s="6" t="s">
-        <v>568</v>
+        <v>715</v>
       </c>
       <c r="F436" s="6" t="s">
         <v>607</v>
@@ -12982,10 +13071,10 @@
     </row>
     <row r="437" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B437" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E437" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F437" s="6" t="s">
         <v>607</v>
@@ -12993,10 +13082,10 @@
     </row>
     <row r="438" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B438" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E438" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F438" s="6" t="s">
         <v>607</v>
@@ -13004,10 +13093,10 @@
     </row>
     <row r="439" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B439" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E439" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F439" s="6" t="s">
         <v>607</v>
@@ -13015,10 +13104,10 @@
     </row>
     <row r="440" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B440" s="6" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E440" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F440" s="6" t="s">
         <v>607</v>
@@ -13026,10 +13115,10 @@
     </row>
     <row r="441" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B441" s="6" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E441" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F441" s="6" t="s">
         <v>607</v>
@@ -13037,10 +13126,10 @@
     </row>
     <row r="442" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B442" s="6" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E442" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F442" s="6" t="s">
         <v>607</v>
@@ -13048,10 +13137,10 @@
     </row>
     <row r="443" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B443" s="6" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E443" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F443" s="6" t="s">
         <v>607</v>
@@ -13059,10 +13148,10 @@
     </row>
     <row r="444" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B444" s="6" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E444" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F444" s="6" t="s">
         <v>607</v>
@@ -13070,10 +13159,10 @@
     </row>
     <row r="445" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B445" s="6" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E445" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F445" s="6" t="s">
         <v>607</v>
@@ -13081,10 +13170,10 @@
     </row>
     <row r="446" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B446" s="6" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E446" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F446" s="6" t="s">
         <v>607</v>
@@ -13092,10 +13181,10 @@
     </row>
     <row r="447" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B447" s="6" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E447" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F447" s="6" t="s">
         <v>607</v>
@@ -13103,10 +13192,10 @@
     </row>
     <row r="448" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B448" s="6" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E448" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F448" s="6" t="s">
         <v>607</v>
@@ -13114,10 +13203,10 @@
     </row>
     <row r="449" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B449" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E449" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F449" s="6" t="s">
         <v>607</v>
@@ -13125,10 +13214,10 @@
     </row>
     <row r="450" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B450" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E450" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F450" s="6" t="s">
         <v>607</v>
@@ -13136,10 +13225,10 @@
     </row>
     <row r="451" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E451" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F451" s="6" t="s">
         <v>607</v>
@@ -13147,10 +13236,10 @@
     </row>
     <row r="452" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B452" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E452" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F452" s="6" t="s">
         <v>607</v>
@@ -13158,10 +13247,10 @@
     </row>
     <row r="453" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E453" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F453" s="6" t="s">
         <v>607</v>
@@ -13169,10 +13258,10 @@
     </row>
     <row r="454" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E454" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F454" s="6" t="s">
         <v>607</v>
@@ -13180,10 +13269,10 @@
     </row>
     <row r="455" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B455" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E455" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F455" s="6" t="s">
         <v>607</v>
@@ -13191,10 +13280,10 @@
     </row>
     <row r="456" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B456" s="6" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E456" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F456" s="6" t="s">
         <v>607</v>
@@ -13202,10 +13291,10 @@
     </row>
     <row r="457" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B457" s="6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E457" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F457" s="6" t="s">
         <v>607</v>
@@ -13213,10 +13302,10 @@
     </row>
     <row r="458" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B458" s="6" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E458" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F458" s="6" t="s">
         <v>607</v>
@@ -13224,10 +13313,10 @@
     </row>
     <row r="459" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B459" s="6" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E459" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F459" s="6" t="s">
         <v>607</v>
@@ -13235,10 +13324,10 @@
     </row>
     <row r="460" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B460" s="6" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E460" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F460" s="6" t="s">
         <v>607</v>
@@ -13246,10 +13335,10 @@
     </row>
     <row r="461" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B461" s="6" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E461" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F461" s="6" t="s">
         <v>607</v>
@@ -13257,10 +13346,10 @@
     </row>
     <row r="462" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B462" s="6" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E462" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F462" s="6" t="s">
         <v>607</v>
@@ -13268,10 +13357,10 @@
     </row>
     <row r="463" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B463" s="6" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E463" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F463" s="6" t="s">
         <v>607</v>
@@ -13279,10 +13368,10 @@
     </row>
     <row r="464" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B464" s="6" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E464" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F464" s="6" t="s">
         <v>607</v>
@@ -13290,10 +13379,10 @@
     </row>
     <row r="465" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B465" s="6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E465" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F465" s="6" t="s">
         <v>607</v>
@@ -13301,10 +13390,10 @@
     </row>
     <row r="466" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B466" s="6" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E466" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F466" s="6" t="s">
         <v>607</v>
@@ -13312,10 +13401,10 @@
     </row>
     <row r="467" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B467" s="6" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E467" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F467" s="6" t="s">
         <v>607</v>
@@ -13323,10 +13412,10 @@
     </row>
     <row r="468" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B468" s="6" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E468" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F468" s="6" t="s">
         <v>607</v>
@@ -13334,10 +13423,10 @@
     </row>
     <row r="469" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="6" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E469" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F469" s="6" t="s">
         <v>607</v>
@@ -13345,10 +13434,10 @@
     </row>
     <row r="470" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="6" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E470" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F470" s="6" t="s">
         <v>607</v>
@@ -13356,10 +13445,10 @@
     </row>
     <row r="471" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="6" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E471" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F471" s="6" t="s">
         <v>607</v>
@@ -13367,10 +13456,10 @@
     </row>
     <row r="472" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B472" s="6" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E472" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F472" s="6" t="s">
         <v>607</v>
@@ -13378,10 +13467,10 @@
     </row>
     <row r="473" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B473" s="6" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E473" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F473" s="6" t="s">
         <v>607</v>
@@ -13389,32 +13478,32 @@
     </row>
     <row r="474" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="6" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E474" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F474" s="6" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="476" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B476" s="6" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E476" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="F476" s="6" t="s">
-        <v>673</v>
+    <row r="475" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B475" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E475" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="F475" s="6" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="477" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B477" s="6" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E477" s="6" t="s">
-        <v>608</v>
+        <v>715</v>
       </c>
       <c r="F477" s="6" t="s">
         <v>673</v>
@@ -13422,10 +13511,10 @@
     </row>
     <row r="478" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B478" s="6" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E478" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F478" s="6" t="s">
         <v>673</v>
@@ -13433,10 +13522,10 @@
     </row>
     <row r="479" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B479" s="6" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E479" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F479" s="6" t="s">
         <v>673</v>
@@ -13444,10 +13533,10 @@
     </row>
     <row r="480" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B480" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E480" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F480" s="6" t="s">
         <v>673</v>
@@ -13455,10 +13544,10 @@
     </row>
     <row r="481" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B481" s="6" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E481" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F481" s="6" t="s">
         <v>673</v>
@@ -13466,10 +13555,10 @@
     </row>
     <row r="482" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B482" s="6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E482" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F482" s="6" t="s">
         <v>673</v>
@@ -13477,10 +13566,10 @@
     </row>
     <row r="483" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B483" s="6" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E483" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F483" s="6" t="s">
         <v>673</v>
@@ -13488,10 +13577,10 @@
     </row>
     <row r="484" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B484" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E484" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F484" s="6" t="s">
         <v>673</v>
@@ -13499,10 +13588,10 @@
     </row>
     <row r="485" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B485" s="6" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E485" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F485" s="6" t="s">
         <v>673</v>
@@ -13510,10 +13599,10 @@
     </row>
     <row r="486" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B486" s="6" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E486" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F486" s="6" t="s">
         <v>673</v>
@@ -13521,10 +13610,10 @@
     </row>
     <row r="487" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B487" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E487" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F487" s="6" t="s">
         <v>673</v>
@@ -13532,10 +13621,10 @@
     </row>
     <row r="488" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B488" s="6" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E488" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F488" s="6" t="s">
         <v>673</v>
@@ -13543,10 +13632,10 @@
     </row>
     <row r="489" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B489" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E489" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F489" s="6" t="s">
         <v>673</v>
@@ -13554,10 +13643,10 @@
     </row>
     <row r="490" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B490" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E490" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F490" s="6" t="s">
         <v>673</v>
@@ -13565,10 +13654,10 @@
     </row>
     <row r="491" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B491" s="6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E491" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F491" s="6" t="s">
         <v>673</v>
@@ -13576,10 +13665,10 @@
     </row>
     <row r="492" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B492" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E492" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F492" s="6" t="s">
         <v>673</v>
@@ -13587,10 +13676,10 @@
     </row>
     <row r="493" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B493" s="6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E493" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F493" s="6" t="s">
         <v>673</v>
@@ -13598,10 +13687,10 @@
     </row>
     <row r="494" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B494" s="6" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E494" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F494" s="6" t="s">
         <v>673</v>
@@ -13609,10 +13698,10 @@
     </row>
     <row r="495" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B495" s="6" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E495" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F495" s="6" t="s">
         <v>673</v>
@@ -13620,10 +13709,10 @@
     </row>
     <row r="496" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B496" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E496" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F496" s="6" t="s">
         <v>673</v>
@@ -13631,10 +13720,10 @@
     </row>
     <row r="497" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B497" s="6" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E497" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F497" s="6" t="s">
         <v>673</v>
@@ -13642,10 +13731,10 @@
     </row>
     <row r="498" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B498" s="6" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E498" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F498" s="6" t="s">
         <v>673</v>
@@ -13653,10 +13742,10 @@
     </row>
     <row r="499" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B499" s="6" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E499" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F499" s="6" t="s">
         <v>673</v>
@@ -13664,10 +13753,10 @@
     </row>
     <row r="500" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B500" s="6" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E500" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F500" s="6" t="s">
         <v>673</v>
@@ -13675,10 +13764,10 @@
     </row>
     <row r="501" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B501" s="6" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E501" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F501" s="6" t="s">
         <v>673</v>
@@ -13686,10 +13775,10 @@
     </row>
     <row r="502" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B502" s="6" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E502" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F502" s="6" t="s">
         <v>673</v>
@@ -13697,10 +13786,10 @@
     </row>
     <row r="503" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B503" s="6" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E503" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F503" s="6" t="s">
         <v>673</v>
@@ -13708,10 +13797,10 @@
     </row>
     <row r="504" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B504" s="6" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E504" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F504" s="6" t="s">
         <v>673</v>
@@ -13719,10 +13808,10 @@
     </row>
     <row r="505" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B505" s="6" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E505" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F505" s="6" t="s">
         <v>673</v>
@@ -13730,10 +13819,10 @@
     </row>
     <row r="506" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B506" s="6" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E506" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F506" s="6" t="s">
         <v>673</v>
@@ -13741,10 +13830,10 @@
     </row>
     <row r="507" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B507" s="6" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E507" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F507" s="6" t="s">
         <v>673</v>
@@ -13752,10 +13841,10 @@
     </row>
     <row r="508" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B508" s="6" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E508" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F508" s="6" t="s">
         <v>673</v>
@@ -13763,10 +13852,10 @@
     </row>
     <row r="509" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B509" s="6" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E509" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F509" s="6" t="s">
         <v>673</v>
@@ -13774,10 +13863,10 @@
     </row>
     <row r="510" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B510" s="6" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E510" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F510" s="6" t="s">
         <v>673</v>
@@ -13785,10 +13874,10 @@
     </row>
     <row r="511" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B511" s="6" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E511" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F511" s="6" t="s">
         <v>673</v>
@@ -13796,10 +13885,10 @@
     </row>
     <row r="512" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B512" s="6" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E512" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F512" s="6" t="s">
         <v>673</v>
@@ -13807,10 +13896,10 @@
     </row>
     <row r="513" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B513" s="6" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E513" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F513" s="6" t="s">
         <v>673</v>
@@ -13818,10 +13907,10 @@
     </row>
     <row r="514" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B514" s="6" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E514" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F514" s="6" t="s">
         <v>673</v>
@@ -13829,10 +13918,10 @@
     </row>
     <row r="515" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B515" s="6" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E515" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F515" s="6" t="s">
         <v>673</v>
@@ -13840,10 +13929,10 @@
     </row>
     <row r="516" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B516" s="6" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E516" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F516" s="6" t="s">
         <v>673</v>
@@ -13851,10 +13940,10 @@
     </row>
     <row r="517" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B517" s="6" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E517" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F517" s="6" t="s">
         <v>673</v>
@@ -13862,10 +13951,10 @@
     </row>
     <row r="518" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B518" s="6" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E518" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F518" s="6" t="s">
         <v>673</v>
@@ -13873,10 +13962,10 @@
     </row>
     <row r="519" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B519" s="6" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E519" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F519" s="6" t="s">
         <v>673</v>
@@ -13884,10 +13973,10 @@
     </row>
     <row r="520" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B520" s="6" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E520" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F520" s="6" t="s">
         <v>673</v>
@@ -13895,10 +13984,10 @@
     </row>
     <row r="521" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B521" s="6" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E521" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F521" s="6" t="s">
         <v>673</v>
@@ -13906,10 +13995,10 @@
     </row>
     <row r="522" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B522" s="6" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E522" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F522" s="6" t="s">
         <v>673</v>
@@ -13917,10 +14006,10 @@
     </row>
     <row r="523" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B523" s="6" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E523" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F523" s="6" t="s">
         <v>673</v>
@@ -13928,10 +14017,10 @@
     </row>
     <row r="524" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B524" s="6" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E524" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F524" s="6" t="s">
         <v>673</v>
@@ -13939,10 +14028,10 @@
     </row>
     <row r="525" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B525" s="6" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E525" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F525" s="6" t="s">
         <v>673</v>
@@ -13950,10 +14039,10 @@
     </row>
     <row r="526" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B526" s="6" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E526" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F526" s="6" t="s">
         <v>673</v>
@@ -13961,10 +14050,10 @@
     </row>
     <row r="527" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B527" s="6" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E527" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F527" s="6" t="s">
         <v>673</v>
@@ -13972,10 +14061,10 @@
     </row>
     <row r="528" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B528" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E528" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F528" s="6" t="s">
         <v>673</v>
@@ -13983,10 +14072,10 @@
     </row>
     <row r="529" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B529" s="6" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E529" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F529" s="6" t="s">
         <v>673</v>
@@ -13994,10 +14083,10 @@
     </row>
     <row r="530" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B530" s="6" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E530" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F530" s="6" t="s">
         <v>673</v>
@@ -14005,10 +14094,10 @@
     </row>
     <row r="531" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B531" s="6" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E531" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F531" s="6" t="s">
         <v>673</v>
@@ -14016,10 +14105,10 @@
     </row>
     <row r="532" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B532" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E532" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F532" s="6" t="s">
         <v>673</v>
@@ -14027,10 +14116,10 @@
     </row>
     <row r="533" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B533" s="6" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E533" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F533" s="6" t="s">
         <v>673</v>
@@ -14038,10 +14127,10 @@
     </row>
     <row r="534" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B534" s="6" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E534" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F534" s="6" t="s">
         <v>673</v>
@@ -14049,10 +14138,10 @@
     </row>
     <row r="535" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B535" s="6" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E535" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F535" s="6" t="s">
         <v>673</v>
@@ -14060,10 +14149,10 @@
     </row>
     <row r="536" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B536" s="6" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E536" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F536" s="6" t="s">
         <v>673</v>
@@ -14071,10 +14160,10 @@
     </row>
     <row r="537" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B537" s="6" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E537" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F537" s="6" t="s">
         <v>673</v>
@@ -14082,10 +14171,10 @@
     </row>
     <row r="538" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B538" s="6" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E538" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F538" s="6" t="s">
         <v>673</v>
@@ -14093,10 +14182,10 @@
     </row>
     <row r="539" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B539" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E539" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F539" s="6" t="s">
         <v>673</v>
@@ -14104,10 +14193,10 @@
     </row>
     <row r="540" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B540" s="6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E540" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F540" s="6" t="s">
         <v>673</v>
@@ -14115,32 +14204,32 @@
     </row>
     <row r="541" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B541" s="6" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E541" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F541" s="6" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="543" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B543" s="6" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E543" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="F543" s="6" t="s">
-        <v>679</v>
+    <row r="542" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B542" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E542" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="F542" s="6" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="544" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B544" s="6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E544" s="6" t="s">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="F544" s="6" t="s">
         <v>679</v>
@@ -14148,10 +14237,10 @@
     </row>
     <row r="545" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B545" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E545" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F545" s="6" t="s">
         <v>679</v>
@@ -14159,10 +14248,10 @@
     </row>
     <row r="546" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B546" s="6" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E546" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F546" s="6" t="s">
         <v>679</v>
@@ -14170,10 +14259,10 @@
     </row>
     <row r="547" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B547" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E547" s="6" t="s">
-        <v>611</v>
+        <v>682</v>
       </c>
       <c r="F547" s="6" t="s">
         <v>679</v>
@@ -14181,10 +14270,10 @@
     </row>
     <row r="548" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B548" s="6" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E548" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F548" s="6" t="s">
         <v>679</v>
@@ -14192,10 +14281,10 @@
     </row>
     <row r="549" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B549" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E549" s="6" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F549" s="6" t="s">
         <v>679</v>
@@ -14203,10 +14292,10 @@
     </row>
     <row r="550" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B550" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E550" s="6" t="s">
-        <v>674</v>
+        <v>610</v>
       </c>
       <c r="F550" s="6" t="s">
         <v>679</v>
@@ -14214,10 +14303,10 @@
     </row>
     <row r="551" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B551" s="6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E551" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F551" s="6" t="s">
         <v>679</v>
@@ -14225,10 +14314,10 @@
     </row>
     <row r="552" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B552" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E552" s="6" t="s">
-        <v>615</v>
+        <v>675</v>
       </c>
       <c r="F552" s="6" t="s">
         <v>679</v>
@@ -14236,10 +14325,10 @@
     </row>
     <row r="553" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B553" s="6" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E553" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F553" s="6" t="s">
         <v>679</v>
@@ -14247,10 +14336,10 @@
     </row>
     <row r="554" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B554" s="6" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E554" s="6" t="s">
-        <v>683</v>
+        <v>616</v>
       </c>
       <c r="F554" s="6" t="s">
         <v>679</v>
@@ -14258,10 +14347,10 @@
     </row>
     <row r="555" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B555" s="6" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E555" s="6" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="F555" s="6" t="s">
         <v>679</v>
@@ -14269,10 +14358,10 @@
     </row>
     <row r="556" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B556" s="6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E556" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F556" s="6" t="s">
         <v>679</v>
@@ -14280,10 +14369,10 @@
     </row>
     <row r="557" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B557" s="6" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E557" s="6" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F557" s="6" t="s">
         <v>679</v>
@@ -14291,10 +14380,10 @@
     </row>
     <row r="558" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B558" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E558" s="6" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="F558" s="6" t="s">
         <v>679</v>
@@ -14302,10 +14391,10 @@
     </row>
     <row r="559" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B559" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E559" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F559" s="6" t="s">
         <v>679</v>
@@ -14313,10 +14402,10 @@
     </row>
     <row r="560" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B560" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E560" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F560" s="6" t="s">
         <v>679</v>
@@ -14324,10 +14413,10 @@
     </row>
     <row r="561" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B561" s="6" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E561" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F561" s="6" t="s">
         <v>679</v>
@@ -14335,10 +14424,10 @@
     </row>
     <row r="562" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B562" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E562" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F562" s="6" t="s">
         <v>679</v>
@@ -14346,10 +14435,10 @@
     </row>
     <row r="563" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B563" s="6" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E563" s="6" t="s">
-        <v>645</v>
+        <v>688</v>
       </c>
       <c r="F563" s="6" t="s">
         <v>679</v>
@@ -14357,10 +14446,10 @@
     </row>
     <row r="564" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B564" s="6" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E564" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F564" s="6" t="s">
         <v>679</v>
@@ -14368,10 +14457,10 @@
     </row>
     <row r="565" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B565" s="6" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E565" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F565" s="6" t="s">
         <v>679</v>
@@ -14379,10 +14468,10 @@
     </row>
     <row r="566" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B566" s="6" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E566" s="6" t="s">
-        <v>689</v>
+        <v>647</v>
       </c>
       <c r="F566" s="6" t="s">
         <v>679</v>
@@ -14390,10 +14479,10 @@
     </row>
     <row r="567" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B567" s="6" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E567" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F567" s="6" t="s">
         <v>679</v>
@@ -14401,10 +14490,10 @@
     </row>
     <row r="568" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B568" s="6" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E568" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F568" s="6" t="s">
         <v>679</v>
@@ -14412,10 +14501,10 @@
     </row>
     <row r="569" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B569" s="6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E569" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F569" s="6" t="s">
         <v>679</v>
@@ -14423,10 +14512,10 @@
     </row>
     <row r="570" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B570" s="6" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E570" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F570" s="6" t="s">
         <v>679</v>
@@ -14434,10 +14523,10 @@
     </row>
     <row r="571" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B571" s="6" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E571" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F571" s="6" t="s">
         <v>679</v>
@@ -14445,10 +14534,10 @@
     </row>
     <row r="572" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B572" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E572" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F572" s="6" t="s">
         <v>679</v>
@@ -14456,10 +14545,10 @@
     </row>
     <row r="573" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B573" s="6" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E573" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F573" s="6" t="s">
         <v>679</v>
@@ -14467,10 +14556,10 @@
     </row>
     <row r="574" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B574" s="6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E574" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F574" s="6" t="s">
         <v>679</v>
@@ -14478,10 +14567,10 @@
     </row>
     <row r="575" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B575" s="6" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E575" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F575" s="6" t="s">
         <v>679</v>
@@ -14489,10 +14578,10 @@
     </row>
     <row r="576" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B576" s="6" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E576" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F576" s="6" t="s">
         <v>679</v>
@@ -14500,10 +14589,10 @@
     </row>
     <row r="577" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B577" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E577" s="6" t="s">
-        <v>651</v>
+        <v>699</v>
       </c>
       <c r="F577" s="6" t="s">
         <v>679</v>
@@ -14511,10 +14600,10 @@
     </row>
     <row r="578" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B578" s="6" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E578" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F578" s="6" t="s">
         <v>679</v>
@@ -14522,10 +14611,10 @@
     </row>
     <row r="579" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B579" s="6" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E579" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F579" s="6" t="s">
         <v>679</v>
@@ -14533,10 +14622,10 @@
     </row>
     <row r="580" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B580" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E580" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F580" s="6" t="s">
         <v>679</v>
@@ -14544,10 +14633,10 @@
     </row>
     <row r="581" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B581" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E581" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F581" s="6" t="s">
         <v>679</v>
@@ -14555,10 +14644,10 @@
     </row>
     <row r="582" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B582" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E582" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F582" s="6" t="s">
         <v>679</v>
@@ -14566,10 +14655,10 @@
     </row>
     <row r="583" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B583" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E583" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F583" s="6" t="s">
         <v>679</v>
@@ -14577,10 +14666,10 @@
     </row>
     <row r="584" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B584" s="6" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E584" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F584" s="6" t="s">
         <v>679</v>
@@ -14588,10 +14677,10 @@
     </row>
     <row r="585" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B585" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E585" s="6" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
       <c r="F585" s="6" t="s">
         <v>679</v>
@@ -14599,10 +14688,10 @@
     </row>
     <row r="586" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B586" s="6" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E586" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F586" s="6" t="s">
         <v>679</v>
@@ -14610,10 +14699,10 @@
     </row>
     <row r="587" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B587" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E587" s="6" t="s">
-        <v>659</v>
+        <v>701</v>
       </c>
       <c r="F587" s="6" t="s">
         <v>679</v>
@@ -14621,10 +14710,10 @@
     </row>
     <row r="588" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B588" s="6" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E588" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F588" s="6" t="s">
         <v>679</v>
@@ -14632,10 +14721,10 @@
     </row>
     <row r="589" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B589" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E589" s="6" t="s">
-        <v>702</v>
+        <v>660</v>
       </c>
       <c r="F589" s="6" t="s">
         <v>679</v>
@@ -14643,10 +14732,10 @@
     </row>
     <row r="590" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B590" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E590" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F590" s="6" t="s">
         <v>679</v>
@@ -14654,10 +14743,10 @@
     </row>
     <row r="591" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B591" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E591" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F591" s="6" t="s">
         <v>679</v>
@@ -14665,10 +14754,10 @@
     </row>
     <row r="592" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B592" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E592" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F592" s="6" t="s">
         <v>679</v>
@@ -14676,10 +14765,10 @@
     </row>
     <row r="593" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B593" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E593" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F593" s="6" t="s">
         <v>679</v>
@@ -14687,10 +14776,10 @@
     </row>
     <row r="594" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B594" s="6" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E594" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F594" s="6" t="s">
         <v>679</v>
@@ -14698,10 +14787,10 @@
     </row>
     <row r="595" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B595" s="6" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E595" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F595" s="6" t="s">
         <v>679</v>
@@ -14709,10 +14798,10 @@
     </row>
     <row r="596" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B596" s="6" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E596" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F596" s="6" t="s">
         <v>679</v>
@@ -14720,10 +14809,10 @@
     </row>
     <row r="597" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B597" s="6" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E597" s="6" t="s">
-        <v>568</v>
+        <v>709</v>
       </c>
       <c r="F597" s="6" t="s">
         <v>679</v>
@@ -14731,10 +14820,10 @@
     </row>
     <row r="598" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B598" s="6" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E598" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F598" s="6" t="s">
         <v>679</v>
@@ -14742,10 +14831,10 @@
     </row>
     <row r="599" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B599" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E599" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F599" s="6" t="s">
         <v>679</v>
@@ -14753,10 +14842,10 @@
     </row>
     <row r="600" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B600" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E600" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F600" s="6" t="s">
         <v>679</v>
@@ -14764,10 +14853,10 @@
     </row>
     <row r="601" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B601" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E601" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F601" s="6" t="s">
         <v>679</v>
@@ -14775,10 +14864,10 @@
     </row>
     <row r="602" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B602" s="6" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E602" s="6" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F602" s="6" t="s">
         <v>679</v>
@@ -14786,10 +14875,10 @@
     </row>
     <row r="603" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B603" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E603" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F603" s="6" t="s">
         <v>679</v>
@@ -14797,10 +14886,10 @@
     </row>
     <row r="604" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B604" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E604" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F604" s="6" t="s">
         <v>679</v>
@@ -14808,10 +14897,10 @@
     </row>
     <row r="605" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B605" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E605" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F605" s="6" t="s">
         <v>679</v>
@@ -14819,10 +14908,10 @@
     </row>
     <row r="606" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B606" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E606" s="6" t="s">
-        <v>710</v>
+        <v>584</v>
       </c>
       <c r="F606" s="6" t="s">
         <v>679</v>
@@ -14830,10 +14919,10 @@
     </row>
     <row r="607" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B607" s="6" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E607" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F607" s="6" t="s">
         <v>679</v>
@@ -14841,10 +14930,10 @@
     </row>
     <row r="608" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B608" s="6" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E608" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F608" s="6" t="s">
         <v>679</v>
@@ -14852,10 +14941,10 @@
     </row>
     <row r="609" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B609" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E609" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F609" s="6" t="s">
         <v>679</v>
@@ -14863,32 +14952,32 @@
     </row>
     <row r="610" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B610" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E610" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F610" s="6" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="612" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B612" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E612" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F612" s="6" t="s">
-        <v>744</v>
+    <row r="611" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B611" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E611" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="F611" s="6" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="613" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B613" s="6" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E613" s="6" t="s">
-        <v>716</v>
+        <v>10</v>
       </c>
       <c r="F613" s="6" t="s">
         <v>744</v>
@@ -14896,10 +14985,10 @@
     </row>
     <row r="614" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B614" s="6" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E614" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F614" s="6" t="s">
         <v>744</v>
@@ -14907,10 +14996,10 @@
     </row>
     <row r="615" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B615" s="6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E615" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F615" s="6" t="s">
         <v>744</v>
@@ -14918,10 +15007,10 @@
     </row>
     <row r="616" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B616" s="6" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E616" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F616" s="6" t="s">
         <v>744</v>
@@ -14929,10 +15018,10 @@
     </row>
     <row r="617" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B617" s="6" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E617" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F617" s="6" t="s">
         <v>744</v>
@@ -14940,10 +15029,10 @@
     </row>
     <row r="618" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B618" s="6" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E618" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F618" s="6" t="s">
         <v>744</v>
@@ -14951,10 +15040,10 @@
     </row>
     <row r="619" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B619" s="6" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E619" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F619" s="6" t="s">
         <v>744</v>
@@ -14962,10 +15051,10 @@
     </row>
     <row r="620" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B620" s="6" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E620" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F620" s="6" t="s">
         <v>744</v>
@@ -14973,10 +15062,10 @@
     </row>
     <row r="621" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B621" s="6" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E621" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F621" s="6" t="s">
         <v>744</v>
@@ -14984,10 +15073,10 @@
     </row>
     <row r="622" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B622" s="6" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E622" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F622" s="6" t="s">
         <v>744</v>
@@ -14995,10 +15084,10 @@
     </row>
     <row r="623" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B623" s="6" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E623" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F623" s="6" t="s">
         <v>744</v>
@@ -15006,10 +15095,10 @@
     </row>
     <row r="624" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B624" s="6" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E624" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F624" s="6" t="s">
         <v>744</v>
@@ -15017,10 +15106,10 @@
     </row>
     <row r="625" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B625" s="6" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E625" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F625" s="6" t="s">
         <v>744</v>
@@ -15028,10 +15117,10 @@
     </row>
     <row r="626" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B626" s="6" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E626" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F626" s="6" t="s">
         <v>744</v>
@@ -15039,10 +15128,10 @@
     </row>
     <row r="627" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B627" s="6" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E627" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F627" s="6" t="s">
         <v>744</v>
@@ -15050,10 +15139,10 @@
     </row>
     <row r="628" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B628" s="6" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E628" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F628" s="6" t="s">
         <v>744</v>
@@ -15061,10 +15150,10 @@
     </row>
     <row r="629" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B629" s="6" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E629" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F629" s="6" t="s">
         <v>744</v>
@@ -15072,10 +15161,10 @@
     </row>
     <row r="630" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B630" s="6" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E630" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F630" s="6" t="s">
         <v>744</v>
@@ -15083,10 +15172,10 @@
     </row>
     <row r="631" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B631" s="6" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E631" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F631" s="6" t="s">
         <v>744</v>
@@ -15094,10 +15183,10 @@
     </row>
     <row r="632" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B632" s="6" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E632" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F632" s="6" t="s">
         <v>744</v>
@@ -15105,10 +15194,10 @@
     </row>
     <row r="633" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B633" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E633" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F633" s="6" t="s">
         <v>744</v>
@@ -15116,10 +15205,10 @@
     </row>
     <row r="634" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B634" s="6" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E634" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F634" s="6" t="s">
         <v>744</v>
@@ -15127,10 +15216,10 @@
     </row>
     <row r="635" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B635" s="6" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E635" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F635" s="6" t="s">
         <v>744</v>
@@ -15138,10 +15227,10 @@
     </row>
     <row r="636" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B636" s="6" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E636" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F636" s="6" t="s">
         <v>744</v>
@@ -15149,10 +15238,10 @@
     </row>
     <row r="637" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B637" s="6" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E637" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F637" s="6" t="s">
         <v>744</v>
@@ -15160,10 +15249,10 @@
     </row>
     <row r="638" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B638" s="6" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E638" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F638" s="6" t="s">
         <v>744</v>
@@ -15171,10 +15260,10 @@
     </row>
     <row r="639" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B639" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E639" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F639" s="6" t="s">
         <v>744</v>
@@ -15182,32 +15271,32 @@
     </row>
     <row r="640" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B640" s="6" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E640" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F640" s="6" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="642" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B642" s="6" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E642" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F642" s="6" t="s">
-        <v>745</v>
+    <row r="641" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B641" s="6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E641" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="F641" s="6" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="643" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B643" s="6" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E643" s="6" t="s">
-        <v>746</v>
+        <v>10</v>
       </c>
       <c r="F643" s="6" t="s">
         <v>745</v>
@@ -15215,10 +15304,10 @@
     </row>
     <row r="644" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B644" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E644" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F644" s="6" t="s">
         <v>745</v>
@@ -15226,10 +15315,10 @@
     </row>
     <row r="645" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B645" s="6" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E645" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F645" s="6" t="s">
         <v>745</v>
@@ -15237,10 +15326,10 @@
     </row>
     <row r="646" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B646" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E646" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F646" s="6" t="s">
         <v>745</v>
@@ -15248,10 +15337,10 @@
     </row>
     <row r="647" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B647" s="6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E647" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F647" s="6" t="s">
         <v>745</v>
@@ -15259,10 +15348,10 @@
     </row>
     <row r="648" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B648" s="6" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E648" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F648" s="6" t="s">
         <v>745</v>
@@ -15270,10 +15359,10 @@
     </row>
     <row r="649" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B649" s="6" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E649" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F649" s="6" t="s">
         <v>745</v>
@@ -15281,10 +15370,10 @@
     </row>
     <row r="650" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B650" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E650" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F650" s="6" t="s">
         <v>745</v>
@@ -15292,10 +15381,10 @@
     </row>
     <row r="651" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B651" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E651" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F651" s="6" t="s">
         <v>745</v>
@@ -15303,10 +15392,10 @@
     </row>
     <row r="652" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B652" s="6" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E652" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F652" s="6" t="s">
         <v>745</v>
@@ -15314,34 +15403,45 @@
     </row>
     <row r="653" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B653" s="6" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E653" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F653" s="6" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="655" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B655" s="6" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E655" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="F655" s="6" t="s">
-        <v>757</v>
+    <row r="654" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B654" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E654" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="F654" s="6" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="656" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B656" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E656" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="F656" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="657" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B657" s="6" t="s">
         <v>1311</v>
       </c>
-      <c r="E656" s="6" t="s">
+      <c r="E657" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="F656" s="6" t="s">
+      <c r="F657" s="6" t="s">
         <v>757</v>
       </c>
     </row>
@@ -15352,7 +15452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/clinica/iotools/data/clinical_specifications_adni.xlsx
+++ b/clinica/iotools/data/clinical_specifications_adni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elina.thibeausutre/Documents/code/clinica/clinica/iotools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63F194E-C5D3-CE47-A63A-6144038A880C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680EFAB6-B34D-DD45-B2F0-7A0C4667F4EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="460" windowWidth="28800" windowHeight="16280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="1140" windowWidth="28800" windowHeight="16280" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="participant.tsv" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="2382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="2370">
   <si>
     <t>Field</t>
   </si>
@@ -7121,69 +7121,21 @@
     <t>ADNI_EF</t>
   </si>
   <si>
-    <t>INSIGHT</t>
-  </si>
-  <si>
-    <t>INSIGHT location</t>
-  </si>
-  <si>
-    <t>CAPP</t>
-  </si>
-  <si>
-    <t>CAPP location</t>
-  </si>
-  <si>
-    <t>PREVDEMALS</t>
-  </si>
-  <si>
-    <t>PREVDEMALS location</t>
-  </si>
-  <si>
     <t>Modalities related</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t xml:space="preserve">                              </t>
-  </si>
-  <si>
     <t>scan_id</t>
   </si>
   <si>
-    <t>&lt;modality_folder_label&gt;/&lt;filename&gt; Ex: anat/example_T1W.nii.gz</t>
-  </si>
-  <si>
-    <t>FLDSTRENG</t>
-  </si>
-  <si>
     <t>mri_field</t>
   </si>
   <si>
-    <t>1 or 1.5 or 3 or 7</t>
-  </si>
-  <si>
-    <t>Date of MRI acquisition</t>
-  </si>
-  <si>
-    <t>Date IRM à M0</t>
-  </si>
-  <si>
-    <t>2016.07.04_CAPP_Database/M0</t>
-  </si>
-  <si>
-    <t>acq_time</t>
-  </si>
-  <si>
     <t>T1/DWI/fMRI</t>
   </si>
   <si>
-    <t>Date of PET acquisition</t>
-  </si>
-  <si>
-    <t>Date TEP à M0</t>
-  </si>
-  <si>
     <t>Trails B</t>
   </si>
   <si>
@@ -7191,6 +7143,18 @@
   </si>
   <si>
     <t>ADNI modified Preclinical Alzheimer's Cognitive Composite (PACC) with Trails B</t>
+  </si>
+  <si>
+    <t>&lt;modality_folder_label&gt;/&lt;filename&gt; Ex: anat/example_T1w.nii.gz</t>
+  </si>
+  <si>
+    <t>Corresponding Image_ID in ADNI</t>
+  </si>
+  <si>
+    <t>Strength of the MRI field</t>
+  </si>
+  <si>
+    <t>1.0 or 1.5 or 3.0 or 7.0</t>
   </si>
 </sst>
 </file>
@@ -7629,7 +7593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -8183,7 +8147,7 @@
     </row>
     <row r="27" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>2379</v>
+        <v>2363</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>95</v>
@@ -8201,7 +8165,7 @@
     </row>
     <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>2380</v>
+        <v>2364</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>97</v>
@@ -8240,7 +8204,7 @@
     </row>
     <row r="29" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>2381</v>
+        <v>2365</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>99</v>
@@ -21746,170 +21710,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="21.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2358</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2359</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2360</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>2361</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>2362</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>2363</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>2364</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>2365</v>
-      </c>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>2366</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="4" t="s">
-        <v>2367</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2368</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2362</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>2369</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>2370</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
-        <v>2371</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2372</v>
-      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>2373</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>2374</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>2375</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>2376</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2377</v>
-      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>2378</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>2374</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>2375</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/clinica/iotools/data/clinical_specifications_adni.xlsx
+++ b/clinica/iotools/data/clinical_specifications_adni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elina.thibeausutre/Documents/code/clinica/clinica/iotools/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omar.elrifai/workspace/clinica_fork/clinica/iotools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680EFAB6-B34D-DD45-B2F0-7A0C4667F4EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD2960E-D5E6-EF42-9615-23C69DB6C8AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="1140" windowWidth="28800" windowHeight="16280" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="28800" windowHeight="16280" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="participant.tsv" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="2370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="2381">
   <si>
     <t>Field</t>
   </si>
@@ -7155,6 +7155,39 @@
   </si>
   <si>
     <t>1.0 or 1.5 or 3.0 or 7.0</t>
+  </si>
+  <si>
+    <t>Composite score for memory</t>
+  </si>
+  <si>
+    <t>Composite score for executive functioning</t>
+  </si>
+  <si>
+    <t>Composite score for language</t>
+  </si>
+  <si>
+    <t>Composite score for visuospatial functioning</t>
+  </si>
+  <si>
+    <t>ADNI_LAN</t>
+  </si>
+  <si>
+    <t>ADNI_VS</t>
+  </si>
+  <si>
+    <t>UWNPSYCHSUM_03_26_20.csv</t>
+  </si>
+  <si>
+    <t>comp_mem</t>
+  </si>
+  <si>
+    <t>comp_ef</t>
+  </si>
+  <si>
+    <t>comp_lang</t>
+  </si>
+  <si>
+    <t>comp_vsf</t>
   </si>
 </sst>
 </file>
@@ -7599,7 +7632,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.5" style="14" customWidth="1"/>
+    <col min="1" max="1" width="113.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.1640625" style="14" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" style="14" customWidth="1"/>
@@ -8227,16 +8260,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F838"/>
+  <dimension ref="A1:F842"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="30" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C449" sqref="C449"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="30" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A805" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B848" sqref="B848"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="39" style="1" customWidth="1"/>
+    <col min="1" max="1" width="84" style="1" customWidth="1"/>
     <col min="2" max="16384" width="39" style="1"/>
   </cols>
   <sheetData>
@@ -21700,6 +21733,62 @@
       </c>
       <c r="F838" t="s">
         <v>2354</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A839" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="E839" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F839" s="1" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A840" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E840" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="F840" s="1" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A841" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E841" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F841" s="1" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A842" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E842" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="F842" s="1" t="s">
+        <v>2376</v>
       </c>
     </row>
   </sheetData>
@@ -21712,7 +21801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/clinica/iotools/data/clinical_specifications_adni.xlsx
+++ b/clinica/iotools/data/clinical_specifications_adni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omar.elrifai/workspace/clinica_fork/clinica/iotools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD2960E-D5E6-EF42-9615-23C69DB6C8AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E7CE8-17EA-9C4E-8F01-C9BE6D00AA1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1140" windowWidth="28800" windowHeight="16280" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="2381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="2388">
   <si>
     <t>Field</t>
   </si>
@@ -7188,6 +7188,27 @@
   </si>
   <si>
     <t>comp_vsf</t>
+  </si>
+  <si>
+    <t>EcogSPDivatt</t>
+  </si>
+  <si>
+    <t>EcogSPLang</t>
+  </si>
+  <si>
+    <t>EcogSPMem</t>
+  </si>
+  <si>
+    <t>EcogSPOrgan</t>
+  </si>
+  <si>
+    <t>EcogSPPlan</t>
+  </si>
+  <si>
+    <t>EcogSPVisspat</t>
+  </si>
+  <si>
+    <t>EcogSPTotal</t>
   </si>
 </sst>
 </file>
@@ -8262,9 +8283,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F842"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="30" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A805" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B848" sqref="B848"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" zoomScaleNormal="30" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E255" sqref="E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12361,7 +12382,7 @@
       <c r="C246"/>
       <c r="D246"/>
       <c r="E246" t="s">
-        <v>582</v>
+        <v>2381</v>
       </c>
       <c r="F246" t="s">
         <v>603</v>
@@ -12377,7 +12398,7 @@
       <c r="C247"/>
       <c r="D247"/>
       <c r="E247" t="s">
-        <v>585</v>
+        <v>2382</v>
       </c>
       <c r="F247" t="s">
         <v>603</v>
@@ -12393,7 +12414,7 @@
       <c r="C248"/>
       <c r="D248"/>
       <c r="E248" t="s">
-        <v>588</v>
+        <v>2383</v>
       </c>
       <c r="F248" t="s">
         <v>603</v>
@@ -12409,7 +12430,7 @@
       <c r="C249"/>
       <c r="D249"/>
       <c r="E249" t="s">
-        <v>591</v>
+        <v>2384</v>
       </c>
       <c r="F249" t="s">
         <v>603</v>
@@ -12425,7 +12446,7 @@
       <c r="C250"/>
       <c r="D250"/>
       <c r="E250" t="s">
-        <v>594</v>
+        <v>2385</v>
       </c>
       <c r="F250" t="s">
         <v>603</v>
@@ -12441,7 +12462,7 @@
       <c r="C251"/>
       <c r="D251"/>
       <c r="E251" t="s">
-        <v>597</v>
+        <v>2386</v>
       </c>
       <c r="F251" t="s">
         <v>603</v>
@@ -12457,7 +12478,7 @@
       <c r="C252"/>
       <c r="D252"/>
       <c r="E252" t="s">
-        <v>600</v>
+        <v>2387</v>
       </c>
       <c r="F252" t="s">
         <v>603</v>
